--- a/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_20_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/420000/Output_20_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>361520.6909124284</v>
+        <v>360818.5552280534</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>57.99231200660378</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>176.0517191689127</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>198.6988396730519</v>
+        <v>168.4171614913627</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>155.5045423845798</v>
       </c>
       <c r="I11" t="n">
         <v>11.74649515820829</v>
@@ -1424,19 +1424,19 @@
         <v>42.18246213585454</v>
       </c>
       <c r="U11" t="n">
-        <v>72.67262509955674</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>170.6096462656428</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>65.88268888825833</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>20.40912598010594</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="U12" t="n">
         <v>47.29170902643618</v>
       </c>
       <c r="V12" t="n">
+        <v>54.16926469765505</v>
+      </c>
+      <c r="W12" t="n">
+        <v>73.55296425993289</v>
+      </c>
+      <c r="X12" t="n">
         <v>198.6988396730519</v>
       </c>
-      <c r="W12" t="n">
-        <v>73.06366070914939</v>
-      </c>
-      <c r="X12" t="n">
-        <v>27.14166275170726</v>
-      </c>
       <c r="Y12" t="n">
-        <v>27.05137332553414</v>
+        <v>198.6988396730519</v>
       </c>
     </row>
     <row r="13">
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>41.30999778875472</v>
+        <v>41.30999778875471</v>
       </c>
       <c r="T13" t="n">
         <v>48.31511175255184</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>142.4877766456912</v>
+      </c>
+      <c r="C14" t="n">
+        <v>186.6415693192373</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>198.6988396730519</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>198.6988396730519</v>
-      </c>
-      <c r="F14" t="n">
-        <v>152.357267280959</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>11.74649515820832</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>18.50923699120975</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.67262509955671</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>170.6096462656428</v>
       </c>
       <c r="X14" t="n">
-        <v>191.0997782266988</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1689,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1701,10 +1701,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>20.40912598010597</v>
+        <v>20.40912598010592</v>
       </c>
       <c r="U15" t="n">
-        <v>47.29170902643621</v>
+        <v>47.29170902643615</v>
       </c>
       <c r="V15" t="n">
-        <v>111.9911809047065</v>
+        <v>54.16926469765502</v>
       </c>
       <c r="W15" t="n">
-        <v>73.06366070914942</v>
+        <v>102.9983018869248</v>
       </c>
       <c r="X15" t="n">
-        <v>27.14166275170729</v>
+        <v>27.14166275170723</v>
       </c>
       <c r="Y15" t="n">
-        <v>198.6988396730519</v>
+        <v>27.05137332553412</v>
       </c>
     </row>
     <row r="16">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.200657730167109</v>
+        <v>1.200657730167052</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>41.30999778875475</v>
+        <v>41.30999778875469</v>
       </c>
       <c r="T16" t="n">
-        <v>48.31511175255187</v>
+        <v>48.31511175255181</v>
       </c>
       <c r="U16" t="n">
-        <v>107.6749517316489</v>
+        <v>107.6749517316488</v>
       </c>
       <c r="V16" t="n">
-        <v>73.50632087205781</v>
+        <v>73.50632087205776</v>
       </c>
       <c r="W16" t="n">
         <v>107.8916758848208</v>
       </c>
       <c r="X16" t="n">
-        <v>47.07833293726696</v>
+        <v>47.07833293726691</v>
       </c>
       <c r="Y16" t="n">
-        <v>39.9533309003246</v>
+        <v>39.95333090032454</v>
       </c>
     </row>
     <row r="17">
@@ -1923,25 +1923,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>79.79315073593983</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.83975863332242</v>
       </c>
       <c r="S18" t="n">
-        <v>88.36722238756474</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="U18" t="n">
-        <v>198.6988396730519</v>
+        <v>150.361175452937</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>66.58072672426806</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>85.51097754203147</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>6.670656243368252</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.52790659228498</v>
+        <v>82.52790659228504</v>
       </c>
       <c r="C20" t="n">
-        <v>65.06695669981195</v>
+        <v>65.06695669981201</v>
       </c>
       <c r="D20" t="n">
-        <v>54.47710654948736</v>
+        <v>54.47710654948742</v>
       </c>
       <c r="E20" t="n">
-        <v>81.72443500106618</v>
+        <v>81.72443500106624</v>
       </c>
       <c r="F20" t="n">
-        <v>106.6701106705158</v>
+        <v>106.6701106705159</v>
       </c>
       <c r="G20" t="n">
-        <v>114.5754854875701</v>
+        <v>114.5754854875702</v>
       </c>
       <c r="H20" t="n">
-        <v>33.92992976515444</v>
+        <v>33.9299297651545</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>27.54632339893931</v>
+        <v>27.54632339893936</v>
       </c>
       <c r="W20" t="n">
-        <v>49.03503364621741</v>
+        <v>49.03503364621747</v>
       </c>
       <c r="X20" t="n">
-        <v>69.52516560727344</v>
+        <v>69.52516560727349</v>
       </c>
       <c r="Y20" t="n">
-        <v>86.03200358485799</v>
+        <v>86.03200358485805</v>
       </c>
     </row>
     <row r="21">
@@ -2163,19 +2163,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>92.18964815515137</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.83975863332242</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T21" t="n">
-        <v>175.013937984024</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>140.3617478098938</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>160.1480792967325</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>133.2630060079985</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.52790659228498</v>
+        <v>82.52790659228504</v>
       </c>
       <c r="C23" t="n">
-        <v>65.06695669981195</v>
+        <v>65.06695669981201</v>
       </c>
       <c r="D23" t="n">
-        <v>54.47710654948736</v>
+        <v>54.47710654948742</v>
       </c>
       <c r="E23" t="n">
-        <v>81.72443500106618</v>
+        <v>81.72443500106624</v>
       </c>
       <c r="F23" t="n">
-        <v>106.6701106705158</v>
+        <v>106.6701106705159</v>
       </c>
       <c r="G23" t="n">
-        <v>114.5754854875701</v>
+        <v>114.5754854875702</v>
       </c>
       <c r="H23" t="n">
-        <v>33.92992976515444</v>
+        <v>33.9299297651545</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>27.54632339893931</v>
+        <v>27.54632339893936</v>
       </c>
       <c r="W23" t="n">
-        <v>49.03503364621741</v>
+        <v>49.03503364621747</v>
       </c>
       <c r="X23" t="n">
-        <v>69.52516560727344</v>
+        <v>69.52516560727349</v>
       </c>
       <c r="Y23" t="n">
-        <v>86.03200358485799</v>
+        <v>86.03200358485805</v>
       </c>
     </row>
     <row r="24">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.511753728471316</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,13 +2403,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2445,22 +2445,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>164.7983925033972</v>
       </c>
       <c r="V24" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>166.7788770416304</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>133.7309500649959</v>
       </c>
       <c r="V25" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>101.8109874335744</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2631,25 +2631,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100.9586300730194</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>8.642990232544463</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I27" t="n">
         <v>79.79315073593983</v>
@@ -2688,16 +2688,16 @@
         <v>199.0404484318762</v>
       </c>
       <c r="U27" t="n">
-        <v>76.92094125534992</v>
+        <v>225.9230314782064</v>
       </c>
       <c r="V27" t="n">
-        <v>83.79849692656879</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>220.091041569146</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>56.77089498062099</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.731751440624</v>
+        <v>233.7317514406241</v>
       </c>
       <c r="C29" t="n">
         <v>216.270801548151</v>
@@ -2798,19 +2798,19 @@
         <v>205.6809513978264</v>
       </c>
       <c r="E29" t="n">
-        <v>232.9282798494052</v>
+        <v>232.9282798494053</v>
       </c>
       <c r="F29" t="n">
         <v>257.8739555188549</v>
       </c>
       <c r="G29" t="n">
-        <v>265.7793303359092</v>
+        <v>265.7793303359093</v>
       </c>
       <c r="H29" t="n">
-        <v>185.1337746134935</v>
+        <v>185.1337746134936</v>
       </c>
       <c r="I29" t="n">
-        <v>41.37572738712194</v>
+        <v>41.375727387122</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>48.13846922012337</v>
+        <v>48.13846922012343</v>
       </c>
       <c r="T29" t="n">
-        <v>71.81169436476819</v>
+        <v>71.81169436476824</v>
       </c>
       <c r="U29" t="n">
         <v>102.3018573284704</v>
       </c>
       <c r="V29" t="n">
-        <v>178.7501682472783</v>
+        <v>178.7501682472784</v>
       </c>
       <c r="W29" t="n">
-        <v>200.2388784945564</v>
+        <v>200.2388784945565</v>
       </c>
       <c r="X29" t="n">
         <v>220.7290104556125</v>
       </c>
       <c r="Y29" t="n">
-        <v>237.235848433197</v>
+        <v>237.2358484331971</v>
       </c>
     </row>
     <row r="30">
@@ -2868,28 +2868,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>17.53109342701083</v>
       </c>
       <c r="C30" t="n">
-        <v>23.70640876545917</v>
+        <v>23.70640876545923</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>8.642990232544378</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>97.05835579241482</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>166.5021842555528</v>
       </c>
       <c r="T30" t="n">
-        <v>199.0404484318762</v>
+        <v>106.7640777382592</v>
       </c>
       <c r="U30" t="n">
         <v>225.9230314782064</v>
@@ -2931,13 +2931,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>102.692892938063</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>56.68060555444785</v>
       </c>
     </row>
     <row r="31">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30.82988995908073</v>
+        <v>30.82988995908079</v>
       </c>
       <c r="C31" t="n">
-        <v>18.24473087577127</v>
+        <v>18.24473087577132</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>18.75504429595211</v>
+        <v>18.75504429595217</v>
       </c>
       <c r="H31" t="n">
-        <v>11.14598907387592</v>
+        <v>11.14598907387598</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.77678681877382</v>
+        <v>17.77678681877388</v>
       </c>
       <c r="S31" t="n">
-        <v>70.93923001766836</v>
+        <v>70.93923001766842</v>
       </c>
       <c r="T31" t="n">
-        <v>77.94434398146549</v>
+        <v>77.94434398146555</v>
       </c>
       <c r="U31" t="n">
-        <v>137.3041839605625</v>
+        <v>137.3041839605626</v>
       </c>
       <c r="V31" t="n">
-        <v>103.1355531009714</v>
+        <v>103.1355531009715</v>
       </c>
       <c r="W31" t="n">
-        <v>137.5209081137344</v>
+        <v>137.5209081137345</v>
       </c>
       <c r="X31" t="n">
-        <v>76.70756516618059</v>
+        <v>76.70756516618064</v>
       </c>
       <c r="Y31" t="n">
-        <v>69.58256312923822</v>
+        <v>69.58256312923828</v>
       </c>
     </row>
     <row r="32">
@@ -3029,10 +3029,10 @@
         <v>233.7317514406241</v>
       </c>
       <c r="C32" t="n">
-        <v>216.2708015481511</v>
+        <v>216.270801548151</v>
       </c>
       <c r="D32" t="n">
-        <v>205.6809513978265</v>
+        <v>205.6809513978264</v>
       </c>
       <c r="E32" t="n">
         <v>232.9282798494053</v>
@@ -3044,10 +3044,10 @@
         <v>265.7793303359093</v>
       </c>
       <c r="H32" t="n">
-        <v>185.1337746134936</v>
+        <v>185.1337746134935</v>
       </c>
       <c r="I32" t="n">
-        <v>41.37572738712203</v>
+        <v>41.375727387122</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>48.13846922012345</v>
+        <v>48.13846922012343</v>
       </c>
       <c r="T32" t="n">
-        <v>71.81169436476827</v>
+        <v>71.81169436476824</v>
       </c>
       <c r="U32" t="n">
-        <v>102.3018573284705</v>
+        <v>102.3018573284704</v>
       </c>
       <c r="V32" t="n">
         <v>178.7501682472784</v>
@@ -3092,7 +3092,7 @@
         <v>200.2388784945565</v>
       </c>
       <c r="X32" t="n">
-        <v>220.7290104556126</v>
+        <v>220.7290104556125</v>
       </c>
       <c r="Y32" t="n">
         <v>237.2358484331971</v>
@@ -3117,10 +3117,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H33" t="n">
         <v>109.5415757500918</v>
@@ -3156,19 +3156,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>17.50009403269629</v>
+        <v>17.50009403269626</v>
       </c>
       <c r="T33" t="n">
-        <v>199.0404484318762</v>
+        <v>50.03835820901965</v>
       </c>
       <c r="U33" t="n">
-        <v>76.92094125534992</v>
+        <v>145.5841630063155</v>
       </c>
       <c r="V33" t="n">
-        <v>136.5913386263355</v>
+        <v>83.79849692656876</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>102.6928929380631</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.82988995908082</v>
+        <v>30.82988995908079</v>
       </c>
       <c r="C34" t="n">
-        <v>18.24473087577135</v>
+        <v>18.24473087577132</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>18.7550442959522</v>
+        <v>18.75504429595217</v>
       </c>
       <c r="H34" t="n">
-        <v>11.14598907387601</v>
+        <v>11.14598907387598</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>17.77678681877391</v>
+        <v>17.77678681877388</v>
       </c>
       <c r="S34" t="n">
-        <v>70.93923001766845</v>
+        <v>70.93923001766842</v>
       </c>
       <c r="T34" t="n">
-        <v>77.94434398146558</v>
+        <v>77.94434398146555</v>
       </c>
       <c r="U34" t="n">
         <v>137.3041839605626</v>
@@ -3250,10 +3250,10 @@
         <v>137.5209081137345</v>
       </c>
       <c r="X34" t="n">
-        <v>76.70756516618067</v>
+        <v>76.70756516618064</v>
       </c>
       <c r="Y34" t="n">
-        <v>69.58256312923831</v>
+        <v>69.58256312923828</v>
       </c>
     </row>
     <row r="35">
@@ -3317,16 +3317,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>19.38121279585027</v>
+        <v>19.3812127958503</v>
       </c>
       <c r="U35" t="n">
-        <v>49.87137575955248</v>
+        <v>49.87137575955251</v>
       </c>
       <c r="V35" t="n">
-        <v>126.3196866783604</v>
+        <v>126.3196866783605</v>
       </c>
       <c r="W35" t="n">
-        <v>147.8083969256385</v>
+        <v>147.8083969256386</v>
       </c>
       <c r="X35" t="n">
         <v>168.2985288866946</v>
@@ -3348,22 +3348,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>17.37168490394562</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>82.83975863332242</v>
       </c>
       <c r="S36" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>199.0404484318762</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9230314782064</v>
+        <v>223.9540523136023</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.50874844875046</v>
+        <v>18.50874844875048</v>
       </c>
       <c r="T37" t="n">
-        <v>25.51386241254758</v>
+        <v>25.51386241254761</v>
       </c>
       <c r="U37" t="n">
-        <v>84.87370239164458</v>
+        <v>84.87370239164461</v>
       </c>
       <c r="V37" t="n">
-        <v>50.70507153205352</v>
+        <v>50.70507153205355</v>
       </c>
       <c r="W37" t="n">
-        <v>85.09042654481652</v>
+        <v>85.09042654481655</v>
       </c>
       <c r="X37" t="n">
-        <v>24.27708359726267</v>
+        <v>24.2770835972627</v>
       </c>
       <c r="Y37" t="n">
-        <v>17.15208156032031</v>
+        <v>17.15208156032034</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>181.3012698717061</v>
+        <v>181.301269871706</v>
       </c>
       <c r="C38" t="n">
-        <v>163.8403199792331</v>
+        <v>163.840319979233</v>
       </c>
       <c r="D38" t="n">
-        <v>153.2504698289085</v>
+        <v>153.2504698289084</v>
       </c>
       <c r="E38" t="n">
-        <v>180.4977982804873</v>
+        <v>180.4977982804872</v>
       </c>
       <c r="F38" t="n">
-        <v>205.443473949937</v>
+        <v>205.4434739499369</v>
       </c>
       <c r="G38" t="n">
-        <v>213.3488487669913</v>
+        <v>213.3488487669912</v>
       </c>
       <c r="H38" t="n">
-        <v>132.7032930445756</v>
+        <v>132.7032930445755</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,10 +3554,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>19.38121279585027</v>
+        <v>19.38121279585022</v>
       </c>
       <c r="U38" t="n">
-        <v>49.87137575955248</v>
+        <v>49.87137575955242</v>
       </c>
       <c r="V38" t="n">
         <v>126.3196866783604</v>
@@ -3566,7 +3566,7 @@
         <v>147.8083969256385</v>
       </c>
       <c r="X38" t="n">
-        <v>168.2985288866946</v>
+        <v>168.2985288866945</v>
       </c>
       <c r="Y38" t="n">
         <v>184.8053668642791</v>
@@ -3582,7 +3582,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3594,10 +3594,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0645880011306</v>
+        <v>46.13452554070467</v>
       </c>
       <c r="H39" t="n">
-        <v>27.20995138232707</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I39" t="n">
         <v>79.79315073593983</v>
@@ -3630,10 +3630,10 @@
         <v>82.83975863332242</v>
       </c>
       <c r="S39" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>199.0404484318762</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9230314782064</v>
@@ -3648,7 +3648,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>4.250123985529882</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.50874844875046</v>
+        <v>18.5087484487504</v>
       </c>
       <c r="T40" t="n">
-        <v>25.51386241254758</v>
+        <v>25.51386241254752</v>
       </c>
       <c r="U40" t="n">
-        <v>84.87370239164458</v>
+        <v>84.87370239164453</v>
       </c>
       <c r="V40" t="n">
-        <v>50.70507153205352</v>
+        <v>50.70507153205347</v>
       </c>
       <c r="W40" t="n">
-        <v>85.09042654481652</v>
+        <v>85.09042654481647</v>
       </c>
       <c r="X40" t="n">
-        <v>24.27708359726267</v>
+        <v>24.27708359726262</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.15208156032031</v>
+        <v>17.15208156032025</v>
       </c>
     </row>
     <row r="41">
@@ -3816,13 +3816,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>11.77209063127935</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3831,13 +3831,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>79.79315073593983</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>199.0404484318762</v>
+        <v>15.5947178112741</v>
       </c>
       <c r="U42" t="n">
-        <v>24.49045968643186</v>
+        <v>225.9230314782064</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4065,13 +4065,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>47.92939979353269</v>
       </c>
       <c r="I45" t="n">
         <v>79.79315073593983</v>
@@ -4113,13 +4113,13 @@
         <v>225.9230314782064</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>31.36801535765079</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>198.0835484438974</v>
+        <v>4.340413411702997</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>228.4669524579454</v>
+        <v>733.4906120992134</v>
       </c>
       <c r="C11" t="n">
-        <v>228.4669524579454</v>
+        <v>733.4906120992134</v>
       </c>
       <c r="D11" t="n">
-        <v>228.4669524579454</v>
+        <v>555.6605927366752</v>
       </c>
       <c r="E11" t="n">
-        <v>228.4669524579454</v>
+        <v>354.9546940770269</v>
       </c>
       <c r="F11" t="n">
-        <v>228.4669524579454</v>
+        <v>354.9546940770269</v>
       </c>
       <c r="G11" t="n">
-        <v>27.76105379829701</v>
+        <v>184.8363491362564</v>
       </c>
       <c r="H11" t="n">
         <v>27.76105379829701</v>
@@ -5039,19 +5039,19 @@
         <v>15.89590717384415</v>
       </c>
       <c r="J11" t="n">
-        <v>47.86977448817007</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K11" t="n">
-        <v>216.535117469966</v>
+        <v>184.5612501556401</v>
       </c>
       <c r="L11" t="n">
-        <v>413.2469687462874</v>
+        <v>184.5612501556401</v>
       </c>
       <c r="M11" t="n">
-        <v>413.2469687462874</v>
+        <v>191.6526205901297</v>
       </c>
       <c r="N11" t="n">
-        <v>413.2469687462874</v>
+        <v>388.3644718664511</v>
       </c>
       <c r="O11" t="n">
         <v>585.0763231427725</v>
@@ -5066,25 +5066,25 @@
         <v>794.7953586922076</v>
       </c>
       <c r="S11" t="n">
-        <v>776.0991597111876</v>
+        <v>776.0991597111877</v>
       </c>
       <c r="T11" t="n">
-        <v>733.4906120992133</v>
+        <v>733.4906120992134</v>
       </c>
       <c r="U11" t="n">
-        <v>660.0839200794592</v>
+        <v>733.4906120992134</v>
       </c>
       <c r="V11" t="n">
-        <v>660.0839200794592</v>
+        <v>733.4906120992134</v>
       </c>
       <c r="W11" t="n">
-        <v>487.7509440535574</v>
+        <v>733.4906120992134</v>
       </c>
       <c r="X11" t="n">
-        <v>487.7509440535574</v>
+        <v>733.4906120992134</v>
       </c>
       <c r="Y11" t="n">
-        <v>287.0450453939088</v>
+        <v>733.4906120992134</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>228.9786357411595</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="C12" t="n">
-        <v>162.4304651469592</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="D12" t="n">
-        <v>162.4304651469592</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E12" t="n">
-        <v>162.4304651469592</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F12" t="n">
         <v>15.89590717384415</v>
@@ -5124,19 +5124,19 @@
         <v>211.1940372584258</v>
       </c>
       <c r="L12" t="n">
-        <v>407.9058885347472</v>
+        <v>401.3716561395649</v>
       </c>
       <c r="M12" t="n">
-        <v>407.9058885347472</v>
+        <v>598.0835074158863</v>
       </c>
       <c r="N12" t="n">
-        <v>407.9058885347472</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="O12" t="n">
-        <v>493.4399366663909</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="P12" t="n">
-        <v>690.1517879427123</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="Q12" t="n">
         <v>794.7953586922076</v>
@@ -5145,25 +5145,25 @@
         <v>794.7953586922076</v>
       </c>
       <c r="S12" t="n">
-        <v>626.6113341916492</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="T12" t="n">
-        <v>605.9960554238654</v>
+        <v>594.0894600325593</v>
       </c>
       <c r="U12" t="n">
-        <v>558.2266523668592</v>
+        <v>546.320056975553</v>
       </c>
       <c r="V12" t="n">
-        <v>357.5207537072108</v>
+        <v>491.6036279880227</v>
       </c>
       <c r="W12" t="n">
-        <v>283.7190762232215</v>
+        <v>417.3077044931409</v>
       </c>
       <c r="X12" t="n">
-        <v>256.3032552619011</v>
+        <v>216.6018058334926</v>
       </c>
       <c r="Y12" t="n">
-        <v>228.9786357411595</v>
+        <v>15.89590717384415</v>
       </c>
     </row>
     <row r="13">
@@ -5179,34 +5179,34 @@
         <v>15.89590717384415</v>
       </c>
       <c r="D13" t="n">
-        <v>45.61159811306644</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E13" t="n">
-        <v>45.61159811306644</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F13" t="n">
-        <v>45.61159811306644</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G13" t="n">
-        <v>45.61159811306644</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H13" t="n">
-        <v>45.61159811306644</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I13" t="n">
-        <v>45.61159811306644</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="J13" t="n">
-        <v>45.61159811306644</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K13" t="n">
-        <v>53.86847219559411</v>
+        <v>20.74594372277245</v>
       </c>
       <c r="L13" t="n">
-        <v>250.5803234719155</v>
+        <v>217.4577949990938</v>
       </c>
       <c r="M13" t="n">
-        <v>326.0580407949148</v>
+        <v>292.9355123220931</v>
       </c>
       <c r="N13" t="n">
         <v>405.1756831228195</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.3631820346718</v>
+        <v>405.1286435296919</v>
       </c>
       <c r="C14" t="n">
-        <v>382.3631820346718</v>
+        <v>216.6018058334926</v>
       </c>
       <c r="D14" t="n">
-        <v>382.3631820346718</v>
+        <v>216.6018058334926</v>
       </c>
       <c r="E14" t="n">
-        <v>181.6572833750233</v>
+        <v>216.6018058334926</v>
       </c>
       <c r="F14" t="n">
-        <v>27.76105379829704</v>
+        <v>216.6018058334926</v>
       </c>
       <c r="G14" t="n">
-        <v>27.76105379829704</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H14" t="n">
-        <v>27.76105379829704</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I14" t="n">
         <v>15.89590717384415</v>
@@ -5285,43 +5285,43 @@
         <v>244.5816257644915</v>
       </c>
       <c r="M14" t="n">
-        <v>441.2934770408129</v>
+        <v>388.3644718664511</v>
       </c>
       <c r="N14" t="n">
-        <v>638.0053283171344</v>
+        <v>388.3644718664511</v>
       </c>
       <c r="O14" t="n">
-        <v>638.0053283171344</v>
+        <v>585.0763231427725</v>
       </c>
       <c r="P14" t="n">
-        <v>794.7953586922077</v>
+        <v>748.9527481072031</v>
       </c>
       <c r="Q14" t="n">
-        <v>794.7953586922077</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="R14" t="n">
-        <v>794.7953586922077</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="S14" t="n">
-        <v>776.0991597111878</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="T14" t="n">
-        <v>776.0991597111878</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="U14" t="n">
-        <v>776.0991597111878</v>
+        <v>721.3886666724534</v>
       </c>
       <c r="V14" t="n">
-        <v>776.0991597111878</v>
+        <v>721.3886666724534</v>
       </c>
       <c r="W14" t="n">
-        <v>776.0991597111878</v>
+        <v>549.0556906465516</v>
       </c>
       <c r="X14" t="n">
-        <v>583.0690806943202</v>
+        <v>549.0556906465516</v>
       </c>
       <c r="Y14" t="n">
-        <v>583.0690806943202</v>
+        <v>549.0556906465516</v>
       </c>
     </row>
     <row r="15">
@@ -5331,58 +5331,58 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>311.3648748082105</v>
+        <v>512.9151186231538</v>
       </c>
       <c r="C15" t="n">
-        <v>311.3648748082105</v>
+        <v>512.9151186231538</v>
       </c>
       <c r="D15" t="n">
-        <v>162.4304651469592</v>
+        <v>512.9151186231538</v>
       </c>
       <c r="E15" t="n">
-        <v>162.4304651469592</v>
+        <v>353.6776636176983</v>
       </c>
       <c r="F15" t="n">
-        <v>15.89590717384415</v>
+        <v>207.1431056445832</v>
       </c>
       <c r="G15" t="n">
-        <v>15.89590717384415</v>
+        <v>207.1431056445832</v>
       </c>
       <c r="H15" t="n">
-        <v>15.89590717384415</v>
+        <v>96.49504933135914</v>
       </c>
       <c r="I15" t="n">
         <v>15.89590717384415</v>
       </c>
       <c r="J15" t="n">
-        <v>15.89590717384415</v>
+        <v>41.24594382033393</v>
       </c>
       <c r="K15" t="n">
-        <v>185.844000611936</v>
+        <v>211.1940372584258</v>
       </c>
       <c r="L15" t="n">
-        <v>382.5558518882575</v>
+        <v>211.1940372584258</v>
       </c>
       <c r="M15" t="n">
-        <v>579.2677031645788</v>
+        <v>296.7280853900694</v>
       </c>
       <c r="N15" t="n">
-        <v>598.0835074158863</v>
+        <v>493.4399366663908</v>
       </c>
       <c r="O15" t="n">
-        <v>794.7953586922077</v>
+        <v>493.4399366663908</v>
       </c>
       <c r="P15" t="n">
-        <v>794.7953586922077</v>
+        <v>690.1517879427122</v>
       </c>
       <c r="Q15" t="n">
-        <v>794.7953586922077</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="R15" t="n">
-        <v>794.7953586922077</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="S15" t="n">
-        <v>794.7953586922077</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="T15" t="n">
         <v>774.1800799244239</v>
@@ -5391,16 +5391,16 @@
         <v>726.4106768674177</v>
       </c>
       <c r="V15" t="n">
-        <v>613.2882719131687</v>
+        <v>671.6942478798874</v>
       </c>
       <c r="W15" t="n">
-        <v>539.4865944291794</v>
+        <v>567.6555591052158</v>
       </c>
       <c r="X15" t="n">
-        <v>512.0707734678589</v>
+        <v>540.2397381438954</v>
       </c>
       <c r="Y15" t="n">
-        <v>311.3648748082105</v>
+        <v>512.9151186231538</v>
       </c>
     </row>
     <row r="16">
@@ -5419,67 +5419,67 @@
         <v>15.89590717384415</v>
       </c>
       <c r="E16" t="n">
-        <v>15.89590717384415</v>
+        <v>47.77129338099321</v>
       </c>
       <c r="F16" t="n">
-        <v>48.7740788583947</v>
+        <v>80.64946506554382</v>
       </c>
       <c r="G16" t="n">
-        <v>48.7740788583947</v>
+        <v>80.64946506554382</v>
       </c>
       <c r="H16" t="n">
-        <v>48.7740788583947</v>
+        <v>80.64946506554382</v>
       </c>
       <c r="I16" t="n">
-        <v>48.7740788583947</v>
+        <v>80.64946506554382</v>
       </c>
       <c r="J16" t="n">
-        <v>48.7740788583947</v>
+        <v>181.4363878389184</v>
       </c>
       <c r="K16" t="n">
-        <v>53.62411540732299</v>
+        <v>186.2864243878468</v>
       </c>
       <c r="L16" t="n">
-        <v>129.3461895185936</v>
+        <v>248.0192359642966</v>
       </c>
       <c r="M16" t="n">
-        <v>326.058040794915</v>
+        <v>323.4969532872959</v>
       </c>
       <c r="N16" t="n">
-        <v>405.1756831228197</v>
+        <v>402.6145956152005</v>
       </c>
       <c r="O16" t="n">
-        <v>462.2373358596341</v>
+        <v>459.676248352015</v>
       </c>
       <c r="P16" t="n">
-        <v>487.5427552522208</v>
+        <v>487.5427552522202</v>
       </c>
       <c r="Q16" t="n">
-        <v>487.5427552522208</v>
+        <v>487.5427552522202</v>
       </c>
       <c r="R16" t="n">
-        <v>487.5427552522208</v>
+        <v>487.5427552522202</v>
       </c>
       <c r="S16" t="n">
-        <v>445.8154847585291</v>
+        <v>445.8154847585286</v>
       </c>
       <c r="T16" t="n">
-        <v>397.0123415741333</v>
+        <v>397.0123415741328</v>
       </c>
       <c r="U16" t="n">
-        <v>288.2497640674172</v>
+        <v>288.2497640674169</v>
       </c>
       <c r="V16" t="n">
-        <v>214.0009551057426</v>
+        <v>214.0009551057424</v>
       </c>
       <c r="W16" t="n">
-        <v>105.0194643129943</v>
+        <v>105.0194643129942</v>
       </c>
       <c r="X16" t="n">
-        <v>57.46559265918932</v>
+        <v>57.4655926591892</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.10869275987154</v>
+        <v>17.10869275987148</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>476.9504770461735</v>
+        <v>476.9504770461733</v>
       </c>
       <c r="C17" t="n">
-        <v>411.2262783594947</v>
+        <v>411.2262783594945</v>
       </c>
       <c r="D17" t="n">
-        <v>356.1988980064773</v>
+        <v>356.1988980064772</v>
       </c>
       <c r="E17" t="n">
-        <v>273.6489636619663</v>
+        <v>273.6489636619658</v>
       </c>
       <c r="F17" t="n">
-        <v>165.901377126092</v>
+        <v>165.9013771260916</v>
       </c>
       <c r="G17" t="n">
-        <v>50.16856350228305</v>
+        <v>50.16856350228304</v>
       </c>
       <c r="H17" t="n">
         <v>15.89590717384415</v>
@@ -5513,52 +5513,52 @@
         <v>15.89590717384415</v>
       </c>
       <c r="J17" t="n">
-        <v>47.86977448817008</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K17" t="n">
-        <v>47.86977448817008</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="L17" t="n">
-        <v>244.5816257644915</v>
+        <v>212.6077584501656</v>
       </c>
       <c r="M17" t="n">
-        <v>441.2934770408129</v>
+        <v>409.319609726487</v>
       </c>
       <c r="N17" t="n">
-        <v>638.0053283171344</v>
+        <v>598.0835074158863</v>
       </c>
       <c r="O17" t="n">
-        <v>638.0053283171344</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="P17" t="n">
-        <v>748.9527481072032</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="Q17" t="n">
-        <v>794.7953586922077</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="R17" t="n">
-        <v>794.7953586922077</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="S17" t="n">
-        <v>794.7953586922077</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="T17" t="n">
-        <v>794.7953586922077</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="U17" t="n">
-        <v>794.7953586922077</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="V17" t="n">
-        <v>766.9707896023692</v>
+        <v>766.9707896023698</v>
       </c>
       <c r="W17" t="n">
-        <v>717.4404525859882</v>
+        <v>717.4404525859885</v>
       </c>
       <c r="X17" t="n">
         <v>647.2130125786413</v>
       </c>
       <c r="Y17" t="n">
-        <v>560.3119988565625</v>
+        <v>560.3119988565622</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>504.8296394390596</v>
+        <v>190.3489364549712</v>
       </c>
       <c r="C18" t="n">
-        <v>504.8296394390596</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="D18" t="n">
-        <v>504.8296394390596</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="E18" t="n">
-        <v>345.5921844336041</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="F18" t="n">
-        <v>345.5921844336041</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="G18" t="n">
-        <v>207.1431056445832</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="H18" t="n">
-        <v>96.49504933135914</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="I18" t="n">
         <v>15.89590717384415</v>
@@ -5598,46 +5598,46 @@
         <v>185.844000611936</v>
       </c>
       <c r="L18" t="n">
-        <v>296.7280853900695</v>
+        <v>382.5558518882574</v>
       </c>
       <c r="M18" t="n">
-        <v>296.7280853900695</v>
+        <v>493.4399366663908</v>
       </c>
       <c r="N18" t="n">
-        <v>493.439936666391</v>
+        <v>493.4399366663908</v>
       </c>
       <c r="O18" t="n">
-        <v>690.1517879427124</v>
+        <v>493.4399366663908</v>
       </c>
       <c r="P18" t="n">
-        <v>690.1517879427124</v>
+        <v>690.1517879427122</v>
       </c>
       <c r="Q18" t="n">
-        <v>794.7953586922077</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="R18" t="n">
-        <v>794.7953586922077</v>
+        <v>711.1188348201648</v>
       </c>
       <c r="S18" t="n">
-        <v>705.535538098708</v>
+        <v>542.9348103196064</v>
       </c>
       <c r="T18" t="n">
-        <v>705.535538098708</v>
+        <v>342.228911659958</v>
       </c>
       <c r="U18" t="n">
-        <v>504.8296394390596</v>
+        <v>190.3489364549712</v>
       </c>
       <c r="V18" t="n">
-        <v>504.8296394390596</v>
+        <v>190.3489364549712</v>
       </c>
       <c r="W18" t="n">
-        <v>504.8296394390596</v>
+        <v>190.3489364549712</v>
       </c>
       <c r="X18" t="n">
-        <v>504.8296394390596</v>
+        <v>190.3489364549712</v>
       </c>
       <c r="Y18" t="n">
-        <v>504.8296394390596</v>
+        <v>190.3489364549712</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>165.813202972154</v>
+        <v>312.7031504700644</v>
       </c>
       <c r="C19" t="n">
-        <v>165.813202972154</v>
+        <v>312.7031504700644</v>
       </c>
       <c r="D19" t="n">
-        <v>165.813202972154</v>
+        <v>312.7031504700644</v>
       </c>
       <c r="E19" t="n">
-        <v>165.813202972154</v>
+        <v>312.7031504700644</v>
       </c>
       <c r="F19" t="n">
         <v>165.813202972154</v>
@@ -5677,7 +5677,7 @@
         <v>20.74594372277245</v>
       </c>
       <c r="L19" t="n">
-        <v>82.47875529922226</v>
+        <v>82.47875529922227</v>
       </c>
       <c r="M19" t="n">
         <v>157.9564726222216</v>
@@ -5692,31 +5692,31 @@
         <v>319.4411870795273</v>
       </c>
       <c r="Q19" t="n">
-        <v>252.1879277620848</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="R19" t="n">
-        <v>252.1879277620848</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="S19" t="n">
-        <v>252.1879277620848</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="T19" t="n">
-        <v>165.813202972154</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="U19" t="n">
-        <v>165.813202972154</v>
+        <v>312.7031504700644</v>
       </c>
       <c r="V19" t="n">
-        <v>165.813202972154</v>
+        <v>312.7031504700644</v>
       </c>
       <c r="W19" t="n">
-        <v>165.813202972154</v>
+        <v>312.7031504700644</v>
       </c>
       <c r="X19" t="n">
-        <v>165.813202972154</v>
+        <v>312.7031504700644</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.813202972154</v>
+        <v>312.7031504700644</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>476.9504770461742</v>
+        <v>476.9504770461738</v>
       </c>
       <c r="C20" t="n">
-        <v>411.2262783594954</v>
+        <v>411.2262783594949</v>
       </c>
       <c r="D20" t="n">
-        <v>356.1988980064778</v>
+        <v>356.1988980064773</v>
       </c>
       <c r="E20" t="n">
-        <v>273.6489636619665</v>
+        <v>273.6489636619659</v>
       </c>
       <c r="F20" t="n">
-        <v>165.9013771260919</v>
+        <v>165.9013771260912</v>
       </c>
       <c r="G20" t="n">
-        <v>50.16856350228298</v>
+        <v>50.16856350228304</v>
       </c>
       <c r="H20" t="n">
         <v>15.89590717384415</v>
@@ -5750,52 +5750,52 @@
         <v>15.89590717384415</v>
       </c>
       <c r="J20" t="n">
-        <v>47.86977448817008</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K20" t="n">
-        <v>204.6598048632434</v>
+        <v>40.78337989881283</v>
       </c>
       <c r="L20" t="n">
-        <v>204.6598048632434</v>
+        <v>237.4952311751342</v>
       </c>
       <c r="M20" t="n">
-        <v>401.3716561395648</v>
+        <v>434.2070824514556</v>
       </c>
       <c r="N20" t="n">
-        <v>598.0835074158863</v>
+        <v>434.2070824514556</v>
       </c>
       <c r="O20" t="n">
-        <v>794.7953586922077</v>
+        <v>630.918933727777</v>
       </c>
       <c r="P20" t="n">
-        <v>794.7953586922077</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="Q20" t="n">
-        <v>794.7953586922077</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="R20" t="n">
-        <v>794.7953586922077</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="S20" t="n">
-        <v>794.7953586922077</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="T20" t="n">
-        <v>794.7953586922077</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="U20" t="n">
-        <v>794.7953586922077</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="V20" t="n">
         <v>766.9707896023699</v>
       </c>
       <c r="W20" t="n">
-        <v>717.4404525859887</v>
+        <v>717.4404525859886</v>
       </c>
       <c r="X20" t="n">
-        <v>647.2130125786418</v>
+        <v>647.2130125786416</v>
       </c>
       <c r="Y20" t="n">
-        <v>560.311998856563</v>
+        <v>560.3119988565627</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.89590717384415</v>
+        <v>542.9348103196064</v>
       </c>
       <c r="C21" t="n">
-        <v>15.89590717384415</v>
+        <v>542.9348103196064</v>
       </c>
       <c r="D21" t="n">
-        <v>15.89590717384415</v>
+        <v>394.0004006583551</v>
       </c>
       <c r="E21" t="n">
-        <v>15.89590717384415</v>
+        <v>394.0004006583551</v>
       </c>
       <c r="F21" t="n">
-        <v>15.89590717384415</v>
+        <v>247.4658426852401</v>
       </c>
       <c r="G21" t="n">
-        <v>15.89590717384415</v>
+        <v>109.0167638962193</v>
       </c>
       <c r="H21" t="n">
         <v>15.89590717384415</v>
@@ -5829,52 +5829,52 @@
         <v>15.89590717384415</v>
       </c>
       <c r="J21" t="n">
-        <v>41.24594382033393</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K21" t="n">
-        <v>41.24594382033393</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="L21" t="n">
-        <v>100.0162341137481</v>
+        <v>212.6077584501656</v>
       </c>
       <c r="M21" t="n">
-        <v>296.7280853900695</v>
+        <v>409.319609726487</v>
       </c>
       <c r="N21" t="n">
-        <v>493.439936666391</v>
+        <v>598.0835074158863</v>
       </c>
       <c r="O21" t="n">
-        <v>493.439936666391</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="P21" t="n">
-        <v>690.1517879427124</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="Q21" t="n">
-        <v>794.7953586922077</v>
+        <v>794.7953586922076</v>
       </c>
       <c r="R21" t="n">
-        <v>794.7953586922077</v>
+        <v>711.1188348201648</v>
       </c>
       <c r="S21" t="n">
-        <v>794.7953586922077</v>
+        <v>542.9348103196064</v>
       </c>
       <c r="T21" t="n">
-        <v>618.0136031527895</v>
+        <v>542.9348103196064</v>
       </c>
       <c r="U21" t="n">
-        <v>417.307704493141</v>
+        <v>542.9348103196064</v>
       </c>
       <c r="V21" t="n">
-        <v>417.307704493141</v>
+        <v>542.9348103196064</v>
       </c>
       <c r="W21" t="n">
-        <v>216.6018058334926</v>
+        <v>542.9348103196064</v>
       </c>
       <c r="X21" t="n">
-        <v>216.6018058334926</v>
+        <v>542.9348103196064</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.89590717384415</v>
+        <v>542.9348103196064</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>184.8320901017511</v>
+        <v>177.6616438372103</v>
       </c>
       <c r="C22" t="n">
-        <v>15.89590717384415</v>
+        <v>177.6616438372103</v>
       </c>
       <c r="D22" t="n">
-        <v>15.89590717384415</v>
+        <v>177.6616438372103</v>
       </c>
       <c r="E22" t="n">
-        <v>15.89590717384415</v>
+        <v>177.6616438372103</v>
       </c>
       <c r="F22" t="n">
-        <v>15.89590717384415</v>
+        <v>177.6616438372103</v>
       </c>
       <c r="G22" t="n">
-        <v>15.89590717384415</v>
+        <v>177.6616438372103</v>
       </c>
       <c r="H22" t="n">
         <v>15.89590717384415</v>
@@ -5914,7 +5914,7 @@
         <v>20.74594372277245</v>
       </c>
       <c r="L22" t="n">
-        <v>82.47875529922226</v>
+        <v>82.47875529922227</v>
       </c>
       <c r="M22" t="n">
         <v>157.9564726222216</v>
@@ -5947,13 +5947,13 @@
         <v>319.4411870795273</v>
       </c>
       <c r="W22" t="n">
-        <v>184.8320901017511</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="X22" t="n">
-        <v>184.8320901017511</v>
+        <v>319.4411870795273</v>
       </c>
       <c r="Y22" t="n">
-        <v>184.8320901017511</v>
+        <v>319.4411870795273</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>476.9504770461742</v>
+        <v>476.9504770461738</v>
       </c>
       <c r="C23" t="n">
-        <v>411.2262783594954</v>
+        <v>411.2262783594949</v>
       </c>
       <c r="D23" t="n">
-        <v>356.1988980064778</v>
+        <v>356.1988980064773</v>
       </c>
       <c r="E23" t="n">
-        <v>273.6489636619665</v>
+        <v>273.6489636619659</v>
       </c>
       <c r="F23" t="n">
-        <v>165.9013771260919</v>
+        <v>165.9013771260912</v>
       </c>
       <c r="G23" t="n">
-        <v>50.16856350228298</v>
+        <v>50.16856350228305</v>
       </c>
       <c r="H23" t="n">
         <v>15.89590717384415</v>
@@ -5987,22 +5987,22 @@
         <v>15.89590717384415</v>
       </c>
       <c r="J23" t="n">
-        <v>47.86977448817008</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K23" t="n">
-        <v>47.86977448817008</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="L23" t="n">
-        <v>237.4952311751343</v>
+        <v>204.6598048632434</v>
       </c>
       <c r="M23" t="n">
-        <v>237.4952311751343</v>
+        <v>401.3716561395648</v>
       </c>
       <c r="N23" t="n">
-        <v>434.2070824514557</v>
+        <v>598.0835074158863</v>
       </c>
       <c r="O23" t="n">
-        <v>630.9189337277771</v>
+        <v>794.7953586922077</v>
       </c>
       <c r="P23" t="n">
         <v>794.7953586922077</v>
@@ -6023,16 +6023,16 @@
         <v>794.7953586922077</v>
       </c>
       <c r="V23" t="n">
-        <v>766.97078960237</v>
+        <v>766.9707896023699</v>
       </c>
       <c r="W23" t="n">
-        <v>717.4404525859889</v>
+        <v>717.4404525859886</v>
       </c>
       <c r="X23" t="n">
-        <v>647.2130125786418</v>
+        <v>647.2130125786416</v>
       </c>
       <c r="Y23" t="n">
-        <v>560.311998856563</v>
+        <v>560.3119988565627</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15.89590717384415</v>
+        <v>460.1169989414355</v>
       </c>
       <c r="C24" t="n">
-        <v>15.89590717384415</v>
+        <v>460.1169989414355</v>
       </c>
       <c r="D24" t="n">
-        <v>15.89590717384415</v>
+        <v>460.1169989414355</v>
       </c>
       <c r="E24" t="n">
-        <v>15.89590717384415</v>
+        <v>300.87954393598</v>
       </c>
       <c r="F24" t="n">
-        <v>15.89590717384415</v>
+        <v>154.344985962865</v>
       </c>
       <c r="G24" t="n">
         <v>15.89590717384415</v>
@@ -6066,19 +6066,19 @@
         <v>15.89590717384415</v>
       </c>
       <c r="J24" t="n">
-        <v>41.24594382033393</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="K24" t="n">
-        <v>211.1940372584258</v>
+        <v>185.844000611936</v>
       </c>
       <c r="L24" t="n">
-        <v>211.1940372584258</v>
+        <v>382.5558518882575</v>
       </c>
       <c r="M24" t="n">
-        <v>407.9058885347472</v>
+        <v>579.2677031645788</v>
       </c>
       <c r="N24" t="n">
-        <v>604.6177398110686</v>
+        <v>775.9795544409003</v>
       </c>
       <c r="O24" t="n">
         <v>794.7953586922077</v>
@@ -6093,25 +6093,25 @@
         <v>794.7953586922077</v>
       </c>
       <c r="S24" t="n">
-        <v>626.6113341916493</v>
+        <v>794.7953586922077</v>
       </c>
       <c r="T24" t="n">
-        <v>626.6113341916493</v>
+        <v>794.7953586922077</v>
       </c>
       <c r="U24" t="n">
-        <v>626.6113341916493</v>
+        <v>628.3323359615035</v>
       </c>
       <c r="V24" t="n">
-        <v>425.9054355320009</v>
+        <v>628.3323359615035</v>
       </c>
       <c r="W24" t="n">
-        <v>225.1995368723525</v>
+        <v>628.3323359615035</v>
       </c>
       <c r="X24" t="n">
-        <v>24.49363821270407</v>
+        <v>628.3323359615035</v>
       </c>
       <c r="Y24" t="n">
-        <v>24.49363821270407</v>
+        <v>628.3323359615035</v>
       </c>
     </row>
     <row r="25">
@@ -6151,7 +6151,7 @@
         <v>20.74594372277245</v>
       </c>
       <c r="L25" t="n">
-        <v>82.47875529922226</v>
+        <v>82.47875529922227</v>
       </c>
       <c r="M25" t="n">
         <v>157.9564726222216</v>
@@ -6169,22 +6169,22 @@
         <v>319.4411870795273</v>
       </c>
       <c r="R25" t="n">
-        <v>319.4411870795273</v>
+        <v>150.9776749162643</v>
       </c>
       <c r="S25" t="n">
-        <v>319.4411870795273</v>
+        <v>150.9776749162643</v>
       </c>
       <c r="T25" t="n">
-        <v>319.4411870795273</v>
+        <v>150.9776749162643</v>
       </c>
       <c r="U25" t="n">
-        <v>319.4411870795273</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="V25" t="n">
-        <v>118.7352884198789</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="W25" t="n">
-        <v>118.7352884198789</v>
+        <v>15.89590717384415</v>
       </c>
       <c r="X25" t="n">
         <v>15.89590717384415</v>
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1474.852168841945</v>
+        <v>1474.852168841946</v>
       </c>
       <c r="C26" t="n">
-        <v>1256.396813742802</v>
+        <v>1256.396813742803</v>
       </c>
       <c r="D26" t="n">
-        <v>1048.638276977321</v>
+        <v>1048.638276977322</v>
       </c>
       <c r="E26" t="n">
-        <v>813.3571862203457</v>
+        <v>813.3571862203466</v>
       </c>
       <c r="F26" t="n">
-        <v>552.8784432720079</v>
+        <v>552.8784432720083</v>
       </c>
       <c r="G26" t="n">
-        <v>284.4144732357358</v>
+        <v>284.4144732357363</v>
       </c>
       <c r="H26" t="n">
-        <v>97.41066049483322</v>
+        <v>97.41066049483351</v>
       </c>
       <c r="I26" t="n">
         <v>55.61699646743751</v>
       </c>
       <c r="J26" t="n">
-        <v>235.1029331023915</v>
+        <v>235.1029331023913</v>
       </c>
       <c r="K26" t="n">
-        <v>551.2803454048153</v>
+        <v>551.2803454048152</v>
       </c>
       <c r="L26" t="n">
-        <v>960.3133146464277</v>
+        <v>960.3133146464274</v>
       </c>
       <c r="M26" t="n">
-        <v>1415.42432028489</v>
+        <v>1415.424320284889</v>
       </c>
       <c r="N26" t="n">
         <v>1860.880600751948</v>
@@ -6251,25 +6251,25 @@
         <v>2780.849823371876</v>
       </c>
       <c r="S26" t="n">
-        <v>2732.225106987912</v>
+        <v>2732.225106987913</v>
       </c>
       <c r="T26" t="n">
         <v>2659.688041972995</v>
       </c>
       <c r="U26" t="n">
-        <v>2556.352832550297</v>
+        <v>2556.352832550298</v>
       </c>
       <c r="V26" t="n">
-        <v>2375.797107047995</v>
+        <v>2375.797107047997</v>
       </c>
       <c r="W26" t="n">
-        <v>2173.53561361915</v>
+        <v>2173.535613619152</v>
       </c>
       <c r="X26" t="n">
-        <v>1950.57701719934</v>
+        <v>1950.577017199341</v>
       </c>
       <c r="Y26" t="n">
-        <v>1710.944847064797</v>
+        <v>1710.944847064798</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>614.8684287046322</v>
+        <v>430.0475173834899</v>
       </c>
       <c r="C27" t="n">
-        <v>440.4153994235051</v>
+        <v>255.5944881023629</v>
       </c>
       <c r="D27" t="n">
-        <v>291.4809897622538</v>
+        <v>255.5944881023629</v>
       </c>
       <c r="E27" t="n">
-        <v>282.7506965980675</v>
+        <v>246.8641949381766</v>
       </c>
       <c r="F27" t="n">
-        <v>136.2161386249525</v>
+        <v>246.8641949381766</v>
       </c>
       <c r="G27" t="n">
-        <v>136.2161386249525</v>
+        <v>246.8641949381766</v>
       </c>
       <c r="H27" t="n">
         <v>136.2161386249525</v>
@@ -6303,7 +6303,7 @@
         <v>55.61699646743751</v>
       </c>
       <c r="J27" t="n">
-        <v>80.96703311392729</v>
+        <v>80.9670331139273</v>
       </c>
       <c r="K27" t="n">
         <v>250.9151265520192</v>
@@ -6336,19 +6336,19 @@
         <v>1549.038865468915</v>
       </c>
       <c r="U27" t="n">
-        <v>1471.340945008965</v>
+        <v>1320.833783167696</v>
       </c>
       <c r="V27" t="n">
-        <v>1386.695998618492</v>
+        <v>1085.681674935953</v>
       </c>
       <c r="W27" t="n">
-        <v>1132.45864189029</v>
+        <v>863.3674915327754</v>
       </c>
       <c r="X27" t="n">
-        <v>924.6071416847572</v>
+        <v>806.0231531685117</v>
       </c>
       <c r="Y27" t="n">
-        <v>716.8468429198033</v>
+        <v>598.2628544035579</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>103.866330531405</v>
+        <v>97.77865245295463</v>
       </c>
       <c r="C28" t="n">
-        <v>85.43730944476731</v>
+        <v>79.3496313663169</v>
       </c>
       <c r="D28" t="n">
-        <v>85.82006047736499</v>
+        <v>79.73238239891458</v>
       </c>
       <c r="E28" t="n">
-        <v>85.82006047736499</v>
+        <v>82.27482869943901</v>
       </c>
       <c r="F28" t="n">
         <v>85.82006047736499</v>
@@ -6388,46 +6388,46 @@
         <v>60.4670330163658</v>
       </c>
       <c r="L28" t="n">
-        <v>269.7119139134435</v>
+        <v>122.1998445928156</v>
       </c>
       <c r="M28" t="n">
-        <v>492.7017005570708</v>
+        <v>345.1896312364429</v>
       </c>
       <c r="N28" t="n">
-        <v>719.3314122056033</v>
+        <v>571.8193428849754</v>
       </c>
       <c r="O28" t="n">
-        <v>776.3930649424177</v>
+        <v>628.8809956217899</v>
       </c>
       <c r="P28" t="n">
-        <v>832.8976681553206</v>
+        <v>801.6984843350044</v>
       </c>
       <c r="Q28" t="n">
-        <v>832.8976681553206</v>
+        <v>826.8099900768702</v>
       </c>
       <c r="R28" t="n">
-        <v>814.9413178333268</v>
+        <v>808.8536397548764</v>
       </c>
       <c r="S28" t="n">
-        <v>743.285529936692</v>
+        <v>737.1978518582416</v>
       </c>
       <c r="T28" t="n">
-        <v>664.553869349353</v>
+        <v>658.4661912709026</v>
       </c>
       <c r="U28" t="n">
-        <v>525.8627744396938</v>
+        <v>519.7750963612434</v>
       </c>
       <c r="V28" t="n">
-        <v>421.6854480750761</v>
+        <v>415.5977699966257</v>
       </c>
       <c r="W28" t="n">
-        <v>282.7754398793846</v>
+        <v>276.6877618009343</v>
       </c>
       <c r="X28" t="n">
-        <v>205.2930508226365</v>
+        <v>199.2053727441861</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.0076335203756</v>
+        <v>128.9199554419251</v>
       </c>
     </row>
     <row r="29">
@@ -6446,16 +6446,16 @@
         <v>1048.638276977322</v>
       </c>
       <c r="E29" t="n">
-        <v>813.3571862203473</v>
+        <v>813.3571862203468</v>
       </c>
       <c r="F29" t="n">
-        <v>552.878443272009</v>
+        <v>552.8784432720086</v>
       </c>
       <c r="G29" t="n">
-        <v>284.4144732357359</v>
+        <v>284.414473235736</v>
       </c>
       <c r="H29" t="n">
-        <v>97.41066049483342</v>
+        <v>97.41066049483348</v>
       </c>
       <c r="I29" t="n">
         <v>55.61699646743751</v>
@@ -6482,7 +6482,7 @@
         <v>2555.933796409426</v>
       </c>
       <c r="Q29" t="n">
-        <v>2749.288476315059</v>
+        <v>2749.288476315058</v>
       </c>
       <c r="R29" t="n">
         <v>2780.849823371876</v>
@@ -6497,16 +6497,16 @@
         <v>2556.352832550298</v>
       </c>
       <c r="V29" t="n">
-        <v>2375.797107047997</v>
+        <v>2375.797107047996</v>
       </c>
       <c r="W29" t="n">
-        <v>2173.535613619152</v>
+        <v>2173.535613619151</v>
       </c>
       <c r="X29" t="n">
         <v>1950.577017199341</v>
       </c>
       <c r="Y29" t="n">
-        <v>1710.944847064799</v>
+        <v>1710.944847064798</v>
       </c>
     </row>
     <row r="30">
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>481.8008679305092</v>
+        <v>725.5164850178561</v>
       </c>
       <c r="C30" t="n">
-        <v>457.8550004906515</v>
+        <v>701.5706175779983</v>
       </c>
       <c r="D30" t="n">
-        <v>308.9205908294002</v>
+        <v>552.636207916747</v>
       </c>
       <c r="E30" t="n">
-        <v>300.190297665214</v>
+        <v>393.3987529112916</v>
       </c>
       <c r="F30" t="n">
-        <v>153.6557396920989</v>
+        <v>246.8641949381766</v>
       </c>
       <c r="G30" t="n">
-        <v>55.61699646743751</v>
+        <v>246.8641949381766</v>
       </c>
       <c r="H30" t="n">
-        <v>55.61699646743751</v>
+        <v>136.2161386249525</v>
       </c>
       <c r="I30" t="n">
         <v>55.61699646743751</v>
       </c>
       <c r="J30" t="n">
-        <v>80.96703311392729</v>
+        <v>80.9670331139273</v>
       </c>
       <c r="K30" t="n">
         <v>250.9151265520192</v>
@@ -6570,22 +6570,22 @@
         <v>1833.766347352954</v>
       </c>
       <c r="T30" t="n">
-        <v>1632.715389340958</v>
+        <v>1725.923844587035</v>
       </c>
       <c r="U30" t="n">
-        <v>1404.510307039739</v>
+        <v>1497.718762285817</v>
       </c>
       <c r="V30" t="n">
-        <v>1169.358198807996</v>
+        <v>1262.566654054074</v>
       </c>
       <c r="W30" t="n">
-        <v>1065.628003921064</v>
+        <v>1008.329297325872</v>
       </c>
       <c r="X30" t="n">
-        <v>857.7765037155311</v>
+        <v>800.4777971203396</v>
       </c>
       <c r="Y30" t="n">
-        <v>650.0162049505773</v>
+        <v>743.2246601966549</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.3210987534786</v>
+        <v>104.2490815640026</v>
       </c>
       <c r="C31" t="n">
-        <v>81.89207766684099</v>
+        <v>85.82006047736493</v>
       </c>
       <c r="D31" t="n">
-        <v>82.27482869943876</v>
+        <v>85.82006047736493</v>
       </c>
       <c r="E31" t="n">
-        <v>82.27482869943876</v>
+        <v>85.82006047736493</v>
       </c>
       <c r="F31" t="n">
-        <v>85.82006047736482</v>
+        <v>85.82006047736493</v>
       </c>
       <c r="G31" t="n">
-        <v>66.87557128953441</v>
+        <v>66.87557128953446</v>
       </c>
       <c r="H31" t="n">
         <v>55.61699646743751</v>
       </c>
       <c r="I31" t="n">
-        <v>56.19512417614202</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="J31" t="n">
-        <v>127.6491070428921</v>
+        <v>55.61699646743751</v>
       </c>
       <c r="K31" t="n">
-        <v>132.4991435918204</v>
+        <v>207.9791023369937</v>
       </c>
       <c r="L31" t="n">
-        <v>341.7440244888982</v>
+        <v>417.2239832340715</v>
       </c>
       <c r="M31" t="n">
-        <v>520.3556525994599</v>
+        <v>524.2836354099843</v>
       </c>
       <c r="N31" t="n">
-        <v>746.9853642479925</v>
+        <v>603.4012777378889</v>
       </c>
       <c r="O31" t="n">
-        <v>804.0470169848069</v>
+        <v>660.4629304747034</v>
       </c>
       <c r="P31" t="n">
-        <v>829.3524363773935</v>
+        <v>833.280419187918</v>
       </c>
       <c r="Q31" t="n">
-        <v>829.3524363773935</v>
+        <v>833.280419187918</v>
       </c>
       <c r="R31" t="n">
-        <v>811.3960860553997</v>
+        <v>815.3240688659242</v>
       </c>
       <c r="S31" t="n">
-        <v>739.740298158765</v>
+        <v>743.6682809692894</v>
       </c>
       <c r="T31" t="n">
-        <v>661.0086375714261</v>
+        <v>664.9366203819504</v>
       </c>
       <c r="U31" t="n">
-        <v>522.317542661767</v>
+        <v>526.2455254722912</v>
       </c>
       <c r="V31" t="n">
-        <v>418.1402162971493</v>
+        <v>422.0681991076735</v>
       </c>
       <c r="W31" t="n">
-        <v>279.2302081014579</v>
+        <v>283.1581909119822</v>
       </c>
       <c r="X31" t="n">
-        <v>201.7478190447099</v>
+        <v>205.675801855234</v>
       </c>
       <c r="Y31" t="n">
-        <v>131.4624017424491</v>
+        <v>135.3903845529731</v>
       </c>
     </row>
     <row r="32">
@@ -6683,31 +6683,31 @@
         <v>1048.638276977322</v>
       </c>
       <c r="E32" t="n">
-        <v>813.3571862203471</v>
+        <v>813.3571862203466</v>
       </c>
       <c r="F32" t="n">
-        <v>552.8784432720088</v>
+        <v>552.8784432720083</v>
       </c>
       <c r="G32" t="n">
-        <v>284.4144732357363</v>
+        <v>284.414473235736</v>
       </c>
       <c r="H32" t="n">
-        <v>97.41066049483351</v>
+        <v>97.41066049483348</v>
       </c>
       <c r="I32" t="n">
         <v>55.61699646743751</v>
       </c>
       <c r="J32" t="n">
-        <v>235.1029331023913</v>
+        <v>235.1029331023914</v>
       </c>
       <c r="K32" t="n">
-        <v>551.2803454048152</v>
+        <v>551.2803454048153</v>
       </c>
       <c r="L32" t="n">
-        <v>960.3133146464274</v>
+        <v>960.3133146464276</v>
       </c>
       <c r="M32" t="n">
-        <v>1415.424320284889</v>
+        <v>1415.42432028489</v>
       </c>
       <c r="N32" t="n">
         <v>1860.880600751948</v>
@@ -6728,22 +6728,22 @@
         <v>2732.225106987913</v>
       </c>
       <c r="T32" t="n">
-        <v>2659.688041972996</v>
+        <v>2659.688041972995</v>
       </c>
       <c r="U32" t="n">
         <v>2556.352832550298</v>
       </c>
       <c r="V32" t="n">
-        <v>2375.797107047997</v>
+        <v>2375.797107047996</v>
       </c>
       <c r="W32" t="n">
-        <v>2173.535613619152</v>
+        <v>2173.535613619151</v>
       </c>
       <c r="X32" t="n">
         <v>1950.577017199341</v>
       </c>
       <c r="Y32" t="n">
-        <v>1710.944847064799</v>
+        <v>1710.944847064798</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>729.4890888860103</v>
+        <v>1014.472725648146</v>
       </c>
       <c r="C33" t="n">
-        <v>555.0360596048833</v>
+        <v>840.0196963670192</v>
       </c>
       <c r="D33" t="n">
-        <v>406.1016499436321</v>
+        <v>691.0852867057679</v>
       </c>
       <c r="E33" t="n">
-        <v>246.8641949381766</v>
+        <v>531.8478317003124</v>
       </c>
       <c r="F33" t="n">
-        <v>246.8641949381766</v>
+        <v>385.3132737271974</v>
       </c>
       <c r="G33" t="n">
         <v>246.8641949381766</v>
@@ -6777,7 +6777,7 @@
         <v>55.61699646743751</v>
       </c>
       <c r="J33" t="n">
-        <v>80.96703311392729</v>
+        <v>80.9670331139273</v>
       </c>
       <c r="K33" t="n">
         <v>250.9151265520192</v>
@@ -6807,22 +6807,22 @@
         <v>1984.273509194223</v>
       </c>
       <c r="T33" t="n">
-        <v>1783.222551182227</v>
+        <v>1933.729713023496</v>
       </c>
       <c r="U33" t="n">
-        <v>1705.524630722277</v>
+        <v>1786.675002916107</v>
       </c>
       <c r="V33" t="n">
-        <v>1567.553581604767</v>
+        <v>1702.030056525633</v>
       </c>
       <c r="W33" t="n">
-        <v>1313.316224876565</v>
+        <v>1598.299861638701</v>
       </c>
       <c r="X33" t="n">
-        <v>1105.464724671032</v>
+        <v>1390.448361433168</v>
       </c>
       <c r="Y33" t="n">
-        <v>897.7044259060783</v>
+        <v>1182.688062668214</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100.7038497860767</v>
+        <v>101.3238842308805</v>
       </c>
       <c r="C34" t="n">
-        <v>82.27482869943901</v>
+        <v>82.89486314424276</v>
       </c>
       <c r="D34" t="n">
-        <v>82.27482869943901</v>
+        <v>83.27761417684047</v>
       </c>
       <c r="E34" t="n">
-        <v>82.27482869943901</v>
+        <v>85.82006047736493</v>
       </c>
       <c r="F34" t="n">
-        <v>85.82006047736499</v>
+        <v>85.82006047736493</v>
       </c>
       <c r="G34" t="n">
-        <v>66.87557128953449</v>
+        <v>66.87557128953446</v>
       </c>
       <c r="H34" t="n">
         <v>55.61699646743751</v>
       </c>
       <c r="I34" t="n">
-        <v>56.19512417614194</v>
+        <v>56.19512417614197</v>
       </c>
       <c r="J34" t="n">
-        <v>56.19512417614194</v>
+        <v>127.649107042892</v>
       </c>
       <c r="K34" t="n">
-        <v>61.04516072507023</v>
+        <v>280.0112129124482</v>
       </c>
       <c r="L34" t="n">
-        <v>270.290041622148</v>
+        <v>445.8807207538629</v>
       </c>
       <c r="M34" t="n">
-        <v>493.2798282657752</v>
+        <v>521.3584380768622</v>
       </c>
       <c r="N34" t="n">
-        <v>572.3974705936798</v>
+        <v>747.9881497253948</v>
       </c>
       <c r="O34" t="n">
-        <v>722.8326181538032</v>
+        <v>805.0498024622092</v>
       </c>
       <c r="P34" t="n">
-        <v>748.1380375463898</v>
+        <v>830.3552218547958</v>
       </c>
       <c r="Q34" t="n">
-        <v>829.7351874099924</v>
+        <v>830.3552218547958</v>
       </c>
       <c r="R34" t="n">
-        <v>811.7788370879986</v>
+        <v>812.398871532802</v>
       </c>
       <c r="S34" t="n">
-        <v>740.1230491913637</v>
+        <v>740.7430836361672</v>
       </c>
       <c r="T34" t="n">
-        <v>661.3913886040248</v>
+        <v>662.0114230488282</v>
       </c>
       <c r="U34" t="n">
-        <v>522.7002936943655</v>
+        <v>523.3203281391691</v>
       </c>
       <c r="V34" t="n">
-        <v>418.5229673297478</v>
+        <v>419.1430017745514</v>
       </c>
       <c r="W34" t="n">
-        <v>279.6129591340564</v>
+        <v>280.23299357886</v>
       </c>
       <c r="X34" t="n">
-        <v>202.1305700773082</v>
+        <v>202.7506045221119</v>
       </c>
       <c r="Y34" t="n">
-        <v>131.8451527750473</v>
+        <v>132.465187219851</v>
       </c>
     </row>
     <row r="35">
@@ -6911,67 +6911,67 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1099.402103283625</v>
+        <v>1099.402103283626</v>
       </c>
       <c r="C35" t="n">
-        <v>933.9068305773295</v>
+        <v>933.90683057733</v>
       </c>
       <c r="D35" t="n">
-        <v>779.1083762046947</v>
+        <v>779.1083762046951</v>
       </c>
       <c r="E35" t="n">
-        <v>596.7873678405664</v>
+        <v>596.7873678405666</v>
       </c>
       <c r="F35" t="n">
-        <v>389.2687072850745</v>
+        <v>389.2687072850747</v>
       </c>
       <c r="G35" t="n">
         <v>173.7648196416495</v>
       </c>
       <c r="H35" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359337</v>
       </c>
       <c r="I35" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359337</v>
       </c>
       <c r="J35" t="n">
-        <v>71.69495660791927</v>
+        <v>71.69495660791929</v>
       </c>
       <c r="K35" t="n">
-        <v>240.3602995897152</v>
+        <v>240.3602995897153</v>
       </c>
       <c r="L35" t="n">
-        <v>701.2994455845562</v>
+        <v>501.8811995106995</v>
       </c>
       <c r="M35" t="n">
-        <v>1042.820339858154</v>
+        <v>993.4296795189174</v>
       </c>
       <c r="N35" t="n">
-        <v>1340.764551004585</v>
+        <v>1291.373890665348</v>
       </c>
       <c r="O35" t="n">
-        <v>1776.335429130232</v>
+        <v>1527.526522717139</v>
       </c>
       <c r="P35" t="n">
-        <v>1940.211854094663</v>
+        <v>1691.40294768157</v>
       </c>
       <c r="Q35" t="n">
-        <v>1986.054464679667</v>
+        <v>1902.586940869622</v>
       </c>
       <c r="R35" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="S35" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="T35" t="n">
-        <v>1966.477482057596</v>
+        <v>1966.477482057597</v>
       </c>
       <c r="U35" t="n">
-        <v>1916.102355027745</v>
+        <v>1916.102355027746</v>
       </c>
       <c r="V35" t="n">
-        <v>1788.50671191829</v>
+        <v>1788.506711918291</v>
       </c>
       <c r="W35" t="n">
         <v>1639.205300882292</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>231.7212750433523</v>
+        <v>602.9451253989421</v>
       </c>
       <c r="C36" t="n">
-        <v>57.26824576222529</v>
+        <v>428.4920961178151</v>
       </c>
       <c r="D36" t="n">
-        <v>57.26824576222529</v>
+        <v>279.5576864565638</v>
       </c>
       <c r="E36" t="n">
-        <v>57.26824576222529</v>
+        <v>120.3202314511084</v>
       </c>
       <c r="F36" t="n">
-        <v>57.26824576222529</v>
+        <v>120.3202314511084</v>
       </c>
       <c r="G36" t="n">
-        <v>39.72108929359335</v>
+        <v>120.3202314511084</v>
       </c>
       <c r="H36" t="n">
-        <v>39.72108929359335</v>
+        <v>120.3202314511084</v>
       </c>
       <c r="I36" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359337</v>
       </c>
       <c r="J36" t="n">
-        <v>65.07112594008314</v>
+        <v>65.07112594008322</v>
       </c>
       <c r="K36" t="n">
-        <v>235.0192193781748</v>
+        <v>235.0192193781751</v>
       </c>
       <c r="L36" t="n">
-        <v>524.9398001898788</v>
+        <v>524.9398001898792</v>
       </c>
       <c r="M36" t="n">
-        <v>915.2426649670831</v>
+        <v>915.2426649670836</v>
       </c>
       <c r="N36" t="n">
-        <v>1331.582698579976</v>
+        <v>1331.582698579977</v>
       </c>
       <c r="O36" t="n">
         <v>1646.036812456933</v>
       </c>
       <c r="P36" t="n">
-        <v>1881.410893930172</v>
+        <v>1881.410893930173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1986.054464679667</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="R36" t="n">
         <v>1902.377940807625</v>
       </c>
       <c r="S36" t="n">
-        <v>1734.193916307066</v>
+        <v>1902.377940807625</v>
       </c>
       <c r="T36" t="n">
-        <v>1533.14295829507</v>
+        <v>1902.377940807625</v>
       </c>
       <c r="U36" t="n">
-        <v>1304.937875993851</v>
+        <v>1676.161726349441</v>
       </c>
       <c r="V36" t="n">
-        <v>1069.785767762109</v>
+        <v>1441.009618117698</v>
       </c>
       <c r="W36" t="n">
-        <v>815.5484110339071</v>
+        <v>1186.772261389497</v>
       </c>
       <c r="X36" t="n">
-        <v>607.6969108283743</v>
+        <v>978.920761183964</v>
       </c>
       <c r="Y36" t="n">
-        <v>399.9366120634203</v>
+        <v>771.1604624190102</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39.72108929359335</v>
+        <v>45.38891695093626</v>
       </c>
       <c r="C37" t="n">
-        <v>45.38891695093619</v>
+        <v>45.38891695093626</v>
       </c>
       <c r="D37" t="n">
-        <v>45.38891695093619</v>
+        <v>45.38891695093626</v>
       </c>
       <c r="E37" t="n">
-        <v>45.38891695093619</v>
+        <v>45.38891695093626</v>
       </c>
       <c r="F37" t="n">
-        <v>45.38891695093619</v>
+        <v>45.38891695093626</v>
       </c>
       <c r="G37" t="n">
-        <v>45.38891695093619</v>
+        <v>45.38891695093626</v>
       </c>
       <c r="H37" t="n">
-        <v>45.38891695093619</v>
+        <v>45.38891695093626</v>
       </c>
       <c r="I37" t="n">
-        <v>45.38891695093619</v>
+        <v>45.38891695093626</v>
       </c>
       <c r="J37" t="n">
-        <v>45.38891695093619</v>
+        <v>45.38891695093626</v>
       </c>
       <c r="K37" t="n">
-        <v>50.23895349986448</v>
+        <v>50.23895349986456</v>
       </c>
       <c r="L37" t="n">
-        <v>111.9717650763143</v>
+        <v>111.9717650763144</v>
       </c>
       <c r="M37" t="n">
-        <v>187.4494823993136</v>
+        <v>187.4494823993137</v>
       </c>
       <c r="N37" t="n">
-        <v>266.5671247272182</v>
+        <v>266.5671247272184</v>
       </c>
       <c r="O37" t="n">
-        <v>323.6287774640327</v>
+        <v>323.6287774640328</v>
       </c>
       <c r="P37" t="n">
-        <v>348.9341968566193</v>
+        <v>348.9341968566195</v>
       </c>
       <c r="Q37" t="n">
-        <v>348.9341968566193</v>
+        <v>348.9341968566195</v>
       </c>
       <c r="R37" t="n">
-        <v>348.9341968566193</v>
+        <v>348.9341968566195</v>
       </c>
       <c r="S37" t="n">
-        <v>330.238491352831</v>
+        <v>330.2384913528311</v>
       </c>
       <c r="T37" t="n">
-        <v>304.4669131583385</v>
+        <v>304.4669131583386</v>
       </c>
       <c r="U37" t="n">
-        <v>218.7359006415257</v>
+        <v>218.7359006415259</v>
       </c>
       <c r="V37" t="n">
-        <v>167.5186566697545</v>
+        <v>167.5186566697546</v>
       </c>
       <c r="W37" t="n">
-        <v>81.5687308669095</v>
+        <v>81.56873086690958</v>
       </c>
       <c r="X37" t="n">
-        <v>57.04642420300781</v>
+        <v>57.04642420300785</v>
       </c>
       <c r="Y37" t="n">
-        <v>39.72108929359335</v>
+        <v>39.72108929359337</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1099.402103283626</v>
+        <v>1099.402103283627</v>
       </c>
       <c r="C38" t="n">
-        <v>933.9068305773303</v>
+        <v>933.906830577331</v>
       </c>
       <c r="D38" t="n">
-        <v>779.1083762046954</v>
+        <v>779.1083762046961</v>
       </c>
       <c r="E38" t="n">
-        <v>596.7873678405668</v>
+        <v>596.7873678405676</v>
       </c>
       <c r="F38" t="n">
-        <v>389.2687072850749</v>
+        <v>389.2687072850761</v>
       </c>
       <c r="G38" t="n">
-        <v>173.7648196416495</v>
+        <v>173.7648196416494</v>
       </c>
       <c r="H38" t="n">
         <v>39.72108929359336</v>
@@ -7172,28 +7172,28 @@
         <v>39.72108929359336</v>
       </c>
       <c r="J38" t="n">
-        <v>71.69495660791928</v>
+        <v>271.113202681776</v>
       </c>
       <c r="K38" t="n">
-        <v>240.3602995897152</v>
+        <v>639.1967917374288</v>
       </c>
       <c r="L38" t="n">
-        <v>501.8811995106994</v>
+        <v>900.7176916584131</v>
       </c>
       <c r="M38" t="n">
-        <v>809.4801358285334</v>
+        <v>1208.316627976247</v>
       </c>
       <c r="N38" t="n">
-        <v>1301.028615836751</v>
+        <v>1506.260839122678</v>
       </c>
       <c r="O38" t="n">
-        <v>1576.917183056376</v>
+        <v>1742.413471174469</v>
       </c>
       <c r="P38" t="n">
-        <v>1940.211854094664</v>
+        <v>1906.2898961389</v>
       </c>
       <c r="Q38" t="n">
-        <v>1986.054464679668</v>
+        <v>1952.132506723904</v>
       </c>
       <c r="R38" t="n">
         <v>1986.054464679668</v>
@@ -7202,19 +7202,19 @@
         <v>1986.054464679668</v>
       </c>
       <c r="T38" t="n">
-        <v>1966.477482057597</v>
+        <v>1966.477482057598</v>
       </c>
       <c r="U38" t="n">
-        <v>1916.102355027746</v>
+        <v>1916.102355027747</v>
       </c>
       <c r="V38" t="n">
-        <v>1788.506711918291</v>
+        <v>1788.506711918292</v>
       </c>
       <c r="W38" t="n">
         <v>1639.205300882293</v>
       </c>
       <c r="X38" t="n">
-        <v>1469.206786855328</v>
+        <v>1469.206786855329</v>
       </c>
       <c r="Y38" t="n">
         <v>1282.534699113633</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>435.1885192774684</v>
+        <v>600.9562575559073</v>
       </c>
       <c r="C39" t="n">
-        <v>435.1885192774684</v>
+        <v>426.5032282747803</v>
       </c>
       <c r="D39" t="n">
-        <v>286.2541096162171</v>
+        <v>277.5688186135291</v>
       </c>
       <c r="E39" t="n">
-        <v>286.2541096162171</v>
+        <v>277.5688186135291</v>
       </c>
       <c r="F39" t="n">
-        <v>286.2541096162171</v>
+        <v>277.5688186135291</v>
       </c>
       <c r="G39" t="n">
-        <v>147.8050308271963</v>
+        <v>230.9682877643324</v>
       </c>
       <c r="H39" t="n">
         <v>120.3202314511084</v>
@@ -7251,16 +7251,16 @@
         <v>39.72108929359336</v>
       </c>
       <c r="J39" t="n">
-        <v>65.07112594008322</v>
+        <v>65.07112594008339</v>
       </c>
       <c r="K39" t="n">
-        <v>235.0192193781751</v>
+        <v>235.0192193781753</v>
       </c>
       <c r="L39" t="n">
-        <v>524.9398001898792</v>
+        <v>524.9398001898793</v>
       </c>
       <c r="M39" t="n">
-        <v>915.2426649670834</v>
+        <v>915.2426649670836</v>
       </c>
       <c r="N39" t="n">
         <v>1331.582698579977</v>
@@ -7278,25 +7278,25 @@
         <v>1902.377940807625</v>
       </c>
       <c r="S39" t="n">
-        <v>1734.193916307067</v>
+        <v>1902.377940807625</v>
       </c>
       <c r="T39" t="n">
-        <v>1533.14295829507</v>
+        <v>1902.377940807625</v>
       </c>
       <c r="U39" t="n">
-        <v>1304.937875993852</v>
+        <v>1674.172858506406</v>
       </c>
       <c r="V39" t="n">
-        <v>1069.785767762109</v>
+        <v>1439.020750274664</v>
       </c>
       <c r="W39" t="n">
-        <v>815.5484110339075</v>
+        <v>1184.783393546462</v>
       </c>
       <c r="X39" t="n">
-        <v>607.6969108283747</v>
+        <v>976.9318933409293</v>
       </c>
       <c r="Y39" t="n">
-        <v>603.4038562975364</v>
+        <v>769.1715945759754</v>
       </c>
     </row>
     <row r="40">
@@ -7345,34 +7345,34 @@
         <v>260.8992970698754</v>
       </c>
       <c r="O40" t="n">
-        <v>317.9609498066898</v>
+        <v>317.9609498066899</v>
       </c>
       <c r="P40" t="n">
-        <v>343.2663691992765</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="Q40" t="n">
-        <v>348.9341968566193</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="R40" t="n">
-        <v>348.9341968566193</v>
+        <v>348.9341968566189</v>
       </c>
       <c r="S40" t="n">
-        <v>330.238491352831</v>
+        <v>330.2384913528306</v>
       </c>
       <c r="T40" t="n">
-        <v>304.4669131583385</v>
+        <v>304.4669131583381</v>
       </c>
       <c r="U40" t="n">
-        <v>218.7359006415257</v>
+        <v>218.7359006415255</v>
       </c>
       <c r="V40" t="n">
-        <v>167.5186566697545</v>
+        <v>167.5186566697543</v>
       </c>
       <c r="W40" t="n">
-        <v>81.5687308669095</v>
+        <v>81.56873086690939</v>
       </c>
       <c r="X40" t="n">
-        <v>57.04642420300782</v>
+        <v>57.04642420300776</v>
       </c>
       <c r="Y40" t="n">
         <v>39.72108929359336</v>
@@ -7388,49 +7388,49 @@
         <v>1099.402103283626</v>
       </c>
       <c r="C41" t="n">
-        <v>933.9068305773301</v>
+        <v>933.9068305773303</v>
       </c>
       <c r="D41" t="n">
-        <v>779.1083762046953</v>
+        <v>779.1083762046956</v>
       </c>
       <c r="E41" t="n">
-        <v>596.7873678405667</v>
+        <v>596.787367840567</v>
       </c>
       <c r="F41" t="n">
-        <v>389.2687072850749</v>
+        <v>389.2687072850752</v>
       </c>
       <c r="G41" t="n">
-        <v>173.7648196416495</v>
+        <v>173.7648196416494</v>
       </c>
       <c r="H41" t="n">
         <v>39.72108929359336</v>
       </c>
       <c r="I41" t="n">
-        <v>39.72108929359336</v>
+        <v>50.66529593357143</v>
       </c>
       <c r="J41" t="n">
-        <v>105.6169145636836</v>
+        <v>82.63916324789736</v>
       </c>
       <c r="K41" t="n">
-        <v>274.2822575454795</v>
+        <v>251.3045062296933</v>
       </c>
       <c r="L41" t="n">
-        <v>535.8031574664637</v>
+        <v>512.8254061506776</v>
       </c>
       <c r="M41" t="n">
-        <v>843.4020937842977</v>
+        <v>820.4243424685117</v>
       </c>
       <c r="N41" t="n">
-        <v>1141.346304930728</v>
+        <v>1118.368553614942</v>
       </c>
       <c r="O41" t="n">
-        <v>1377.498936982519</v>
+        <v>1354.521185666734</v>
       </c>
       <c r="P41" t="n">
-        <v>1740.793608020807</v>
+        <v>1717.815856705021</v>
       </c>
       <c r="Q41" t="n">
-        <v>1986.054464679668</v>
+        <v>1963.076713363882</v>
       </c>
       <c r="R41" t="n">
         <v>1986.054464679668</v>
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>687.0803801695797</v>
+        <v>668.8805412145422</v>
       </c>
       <c r="C42" t="n">
-        <v>675.1893795319238</v>
+        <v>494.4275119334152</v>
       </c>
       <c r="D42" t="n">
-        <v>675.1893795319238</v>
+        <v>345.4931022721639</v>
       </c>
       <c r="E42" t="n">
-        <v>515.9519245264682</v>
+        <v>186.2556472667084</v>
       </c>
       <c r="F42" t="n">
-        <v>369.4173665533532</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="G42" t="n">
-        <v>230.9682877643324</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="H42" t="n">
-        <v>120.3202314511084</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I42" t="n">
-        <v>39.72108929359336</v>
+        <v>39.72108929359361</v>
       </c>
       <c r="J42" t="n">
-        <v>65.07112594008314</v>
+        <v>65.07112594008339</v>
       </c>
       <c r="K42" t="n">
         <v>235.0192193781753</v>
@@ -7515,25 +7515,25 @@
         <v>1986.054464679668</v>
       </c>
       <c r="S42" t="n">
-        <v>1817.87044017911</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="T42" t="n">
-        <v>1616.819482167114</v>
+        <v>1970.30222446626</v>
       </c>
       <c r="U42" t="n">
-        <v>1592.081644100011</v>
+        <v>1742.097142165041</v>
       </c>
       <c r="V42" t="n">
-        <v>1356.929535868268</v>
+        <v>1506.945033933298</v>
       </c>
       <c r="W42" t="n">
-        <v>1102.692179140066</v>
+        <v>1252.707677205097</v>
       </c>
       <c r="X42" t="n">
-        <v>894.8406789345336</v>
+        <v>1044.856176999564</v>
       </c>
       <c r="Y42" t="n">
-        <v>687.0803801695797</v>
+        <v>837.0958782346102</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.72108929359336</v>
+        <v>45.38891695093569</v>
       </c>
       <c r="C43" t="n">
-        <v>39.72108929359336</v>
+        <v>45.38891695093569</v>
       </c>
       <c r="D43" t="n">
-        <v>39.72108929359336</v>
+        <v>45.38891695093569</v>
       </c>
       <c r="E43" t="n">
-        <v>39.72108929359336</v>
+        <v>45.38891695093569</v>
       </c>
       <c r="F43" t="n">
-        <v>39.72108929359336</v>
+        <v>45.38891695093569</v>
       </c>
       <c r="G43" t="n">
-        <v>39.72108929359336</v>
+        <v>45.38891695093569</v>
       </c>
       <c r="H43" t="n">
-        <v>39.72108929359336</v>
+        <v>45.38891695093569</v>
       </c>
       <c r="I43" t="n">
-        <v>39.72108929359336</v>
+        <v>45.38891695093569</v>
       </c>
       <c r="J43" t="n">
-        <v>39.72108929359336</v>
+        <v>45.38891695093569</v>
       </c>
       <c r="K43" t="n">
-        <v>44.57112584252165</v>
+        <v>50.238953499864</v>
       </c>
       <c r="L43" t="n">
         <v>111.9717650763138</v>
@@ -7646,31 +7646,31 @@
         <v>39.72108929359336</v>
       </c>
       <c r="J44" t="n">
-        <v>101.3678223383768</v>
+        <v>71.69495660791929</v>
       </c>
       <c r="K44" t="n">
-        <v>469.4514113940295</v>
+        <v>439.778545663572</v>
       </c>
       <c r="L44" t="n">
-        <v>730.9723113150137</v>
+        <v>701.2994455845562</v>
       </c>
       <c r="M44" t="n">
-        <v>1038.571247632848</v>
+        <v>1008.89838190239</v>
       </c>
       <c r="N44" t="n">
-        <v>1336.515458779278</v>
+        <v>1456.715273268395</v>
       </c>
       <c r="O44" t="n">
-        <v>1572.668090831069</v>
+        <v>1692.867905320186</v>
       </c>
       <c r="P44" t="n">
-        <v>1736.5445157955</v>
+        <v>1856.744330284617</v>
       </c>
       <c r="Q44" t="n">
-        <v>1981.805372454361</v>
+        <v>1902.586940869622</v>
       </c>
       <c r="R44" t="n">
-        <v>1981.805372454361</v>
+        <v>1986.054464679668</v>
       </c>
       <c r="S44" t="n">
         <v>1986.054464679668</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>407.7037199013805</v>
+        <v>638.6557635115842</v>
       </c>
       <c r="C45" t="n">
-        <v>407.7037199013805</v>
+        <v>464.2027342304572</v>
       </c>
       <c r="D45" t="n">
-        <v>258.7693102401292</v>
+        <v>315.2683245692059</v>
       </c>
       <c r="E45" t="n">
-        <v>258.7693102401292</v>
+        <v>315.2683245692059</v>
       </c>
       <c r="F45" t="n">
-        <v>258.7693102401292</v>
+        <v>168.7337665960909</v>
       </c>
       <c r="G45" t="n">
-        <v>120.3202314511084</v>
+        <v>168.7337665960909</v>
       </c>
       <c r="H45" t="n">
         <v>120.3202314511084</v>
@@ -7725,16 +7725,16 @@
         <v>39.72108929359336</v>
       </c>
       <c r="J45" t="n">
-        <v>65.07112594008314</v>
+        <v>65.07112594008339</v>
       </c>
       <c r="K45" t="n">
-        <v>235.019219378175</v>
+        <v>235.0192193781753</v>
       </c>
       <c r="L45" t="n">
-        <v>524.9398001898791</v>
+        <v>524.9398001898793</v>
       </c>
       <c r="M45" t="n">
-        <v>915.2426649670833</v>
+        <v>915.2426649670836</v>
       </c>
       <c r="N45" t="n">
         <v>1331.582698579977</v>
@@ -7743,7 +7743,7 @@
         <v>1646.036812456933</v>
       </c>
       <c r="P45" t="n">
-        <v>1881.410893930172</v>
+        <v>1881.410893930173</v>
       </c>
       <c r="Q45" t="n">
         <v>1986.054464679668</v>
@@ -7761,16 +7761,16 @@
         <v>1304.937875993852</v>
       </c>
       <c r="V45" t="n">
-        <v>1069.785767762109</v>
+        <v>1273.253011996225</v>
       </c>
       <c r="W45" t="n">
-        <v>815.5484110339075</v>
+        <v>1019.015655268023</v>
       </c>
       <c r="X45" t="n">
-        <v>615.4640186663344</v>
+        <v>1014.631399296606</v>
       </c>
       <c r="Y45" t="n">
-        <v>407.7037199013805</v>
+        <v>806.8711005316522</v>
       </c>
     </row>
     <row r="46">
@@ -7798,28 +7798,28 @@
         <v>39.72108929359336</v>
       </c>
       <c r="H46" t="n">
-        <v>45.38891695093619</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="I46" t="n">
-        <v>45.38891695093619</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="J46" t="n">
-        <v>45.38891695093619</v>
+        <v>39.72108929359336</v>
       </c>
       <c r="K46" t="n">
-        <v>50.23895349986448</v>
+        <v>44.57112584252165</v>
       </c>
       <c r="L46" t="n">
-        <v>111.9717650763143</v>
+        <v>106.3039374189715</v>
       </c>
       <c r="M46" t="n">
-        <v>187.4494823993136</v>
+        <v>181.7816547419708</v>
       </c>
       <c r="N46" t="n">
-        <v>266.5671247272182</v>
+        <v>260.8992970698754</v>
       </c>
       <c r="O46" t="n">
-        <v>323.6287774640327</v>
+        <v>317.9609498066899</v>
       </c>
       <c r="P46" t="n">
         <v>348.9341968566193</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>136.7997795010375</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>352.197529050791</v>
+        <v>153.4986893777391</v>
       </c>
       <c r="M11" t="n">
-        <v>138.8075372121921</v>
+        <v>145.9705376510704</v>
       </c>
       <c r="N11" t="n">
-        <v>136.393175779226</v>
+        <v>335.0920154522778</v>
       </c>
       <c r="O11" t="n">
-        <v>315.827173530113</v>
+        <v>340.9610087622709</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8772,22 +8772,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>276.6901134495373</v>
+        <v>270.089878706929</v>
       </c>
       <c r="M12" t="n">
-        <v>71.45974579322792</v>
+        <v>270.1585854662798</v>
       </c>
       <c r="N12" t="n">
-        <v>58.79688584568154</v>
+        <v>257.4957255187334</v>
       </c>
       <c r="O12" t="n">
-        <v>162.6299296349996</v>
+        <v>76.23190121919788</v>
       </c>
       <c r="P12" t="n">
-        <v>279.4100108652725</v>
+        <v>80.71117119222055</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>104.3767112212073</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,19 +8933,19 @@
         <v>352.197529050791</v>
       </c>
       <c r="M14" t="n">
-        <v>337.506376885244</v>
+        <v>284.0427352949795</v>
       </c>
       <c r="N14" t="n">
-        <v>335.0920154522779</v>
+        <v>136.3931757792259</v>
       </c>
       <c r="O14" t="n">
-        <v>142.262169089219</v>
+        <v>340.9610087622709</v>
       </c>
       <c r="P14" t="n">
-        <v>314.6407338387985</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.0093234023244</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>100.4849377176919</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>276.6901134495373</v>
+        <v>77.9912737764854</v>
       </c>
       <c r="M15" t="n">
-        <v>270.1585854662799</v>
+        <v>157.8577742090295</v>
       </c>
       <c r="N15" t="n">
-        <v>77.80274872579007</v>
+        <v>257.4957255187334</v>
       </c>
       <c r="O15" t="n">
-        <v>274.9307408922498</v>
+        <v>76.23190121919788</v>
       </c>
       <c r="P15" t="n">
-        <v>80.71117119222055</v>
+        <v>279.4100108652725</v>
       </c>
       <c r="Q15" t="n">
-        <v>104.3767112212073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>136.7997795010375</v>
       </c>
       <c r="K17" t="n">
         <v>153.7763792562193</v>
@@ -9173,16 +9173,16 @@
         <v>337.506376885244</v>
       </c>
       <c r="N17" t="n">
-        <v>335.0920154522779</v>
+        <v>327.0637795058919</v>
       </c>
       <c r="O17" t="n">
-        <v>142.262169089219</v>
+        <v>340.9610087622709</v>
       </c>
       <c r="P17" t="n">
-        <v>268.3350665812181</v>
+        <v>156.2669657831689</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>166.0093234023243</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9246,19 +9246,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>189.9953998150041</v>
+        <v>276.6901134495373</v>
       </c>
       <c r="M18" t="n">
-        <v>71.45974579322792</v>
+        <v>183.4638718317465</v>
       </c>
       <c r="N18" t="n">
-        <v>257.4957255187335</v>
+        <v>58.79688584568153</v>
       </c>
       <c r="O18" t="n">
-        <v>274.9307408922498</v>
+        <v>76.23190121919788</v>
       </c>
       <c r="P18" t="n">
-        <v>80.71117119222055</v>
+        <v>279.4100108652725</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>136.7997795010375</v>
       </c>
       <c r="K20" t="n">
-        <v>312.150147311849</v>
+        <v>178.9152405945715</v>
       </c>
       <c r="L20" t="n">
-        <v>153.4986893777391</v>
+        <v>352.197529050791</v>
       </c>
       <c r="M20" t="n">
-        <v>337.506376885244</v>
+        <v>337.5063768852439</v>
       </c>
       <c r="N20" t="n">
-        <v>335.0920154522779</v>
+        <v>136.3931757792259</v>
       </c>
       <c r="O20" t="n">
         <v>340.9610087622709</v>
       </c>
       <c r="P20" t="n">
-        <v>156.2669657831689</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>166.0093234023244</v>
+        <v>166.0093234023243</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>100.4849377176919</v>
       </c>
       <c r="K21" t="n">
-        <v>92.80049616602116</v>
+        <v>92.80049616602115</v>
       </c>
       <c r="L21" t="n">
-        <v>137.3552033657926</v>
+        <v>276.6901134495373</v>
       </c>
       <c r="M21" t="n">
-        <v>270.1585854662799</v>
+        <v>270.1585854662798</v>
       </c>
       <c r="N21" t="n">
-        <v>257.4957255187335</v>
+        <v>249.4674895723475</v>
       </c>
       <c r="O21" t="n">
-        <v>76.23190121919789</v>
+        <v>274.9307408922498</v>
       </c>
       <c r="P21" t="n">
-        <v>279.4100108652725</v>
+        <v>80.71117119222055</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>104.3767112212073</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>136.7997795010375</v>
       </c>
       <c r="K23" t="n">
         <v>153.7763792562193</v>
       </c>
       <c r="L23" t="n">
-        <v>345.039554718107</v>
+        <v>344.169293104405</v>
       </c>
       <c r="M23" t="n">
-        <v>138.8075372121921</v>
+        <v>337.506376885244</v>
       </c>
       <c r="N23" t="n">
         <v>335.0920154522779</v>
@@ -9653,10 +9653,10 @@
         <v>340.9610087622709</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>156.2669657831689</v>
       </c>
       <c r="Q23" t="n">
-        <v>166.0093234023244</v>
+        <v>166.0093234023243</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>100.4849377176919</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>77.9912737764854</v>
+        <v>276.6901134495373</v>
       </c>
       <c r="M24" t="n">
         <v>270.1585854662799</v>
@@ -9729,7 +9729,7 @@
         <v>257.4957255187335</v>
       </c>
       <c r="O24" t="n">
-        <v>268.3305061496415</v>
+        <v>95.2377640993064</v>
       </c>
       <c r="P24" t="n">
         <v>80.71117119222055</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125784</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>126.0910353404091</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125789</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>126.0910353404091</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>146.1102072051066</v>
+        <v>204.1025192117104</v>
       </c>
       <c r="C11" t="n">
         <v>186.6415693192373</v>
       </c>
       <c r="D11" t="n">
-        <v>176.0517191689127</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>203.2990476204916</v>
+        <v>4.600207947439657</v>
       </c>
       <c r="F11" t="n">
         <v>228.2447232899412</v>
       </c>
       <c r="G11" t="n">
-        <v>37.45125843394363</v>
+        <v>67.73293661563278</v>
       </c>
       <c r="H11" t="n">
-        <v>155.5045423845798</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.67262509955674</v>
       </c>
       <c r="V11" t="n">
         <v>149.1209360183647</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>170.6096462656428</v>
       </c>
       <c r="X11" t="n">
         <v>191.0997782266988</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.907776531231463</v>
+        <v>207.6066162042834</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.403679538658452</v>
+        <v>61.61474256601916</v>
       </c>
       <c r="C14" t="n">
-        <v>186.6415693192374</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>176.0517191689128</v>
+        <v>176.0517191689127</v>
       </c>
       <c r="E14" t="n">
-        <v>4.600207947439657</v>
+        <v>203.2990476204915</v>
       </c>
       <c r="F14" t="n">
-        <v>75.88745600898224</v>
+        <v>228.2447232899412</v>
       </c>
       <c r="G14" t="n">
-        <v>236.1500981069956</v>
+        <v>37.4512584339436</v>
       </c>
       <c r="H14" t="n">
-        <v>155.5045423845799</v>
+        <v>155.5045423845798</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>11.74649515820826</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>18.50923699120969</v>
       </c>
       <c r="T14" t="n">
-        <v>42.18246213585456</v>
+        <v>42.18246213585451</v>
       </c>
       <c r="U14" t="n">
-        <v>72.67262509955677</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>149.1209360183647</v>
       </c>
       <c r="W14" t="n">
-        <v>170.6096462656428</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>191.0997782266988</v>
       </c>
       <c r="Y14" t="n">
-        <v>207.6066162042834</v>
+        <v>207.6066162042833</v>
       </c>
     </row>
     <row r="15">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553011.5286340008</v>
+        <v>553011.5286340007</v>
       </c>
       <c r="C2" t="n">
-        <v>553011.5286340008</v>
+        <v>553011.5286340009</v>
       </c>
       <c r="D2" t="n">
         <v>553011.5286340009</v>
@@ -26323,10 +26323,10 @@
         <v>474552.1470363858</v>
       </c>
       <c r="F2" t="n">
-        <v>474552.1470363857</v>
+        <v>474552.147036386</v>
       </c>
       <c r="G2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="H2" t="n">
         <v>554203.1946583912</v>
@@ -26335,22 +26335,22 @@
         <v>554203.1946583912</v>
       </c>
       <c r="J2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="K2" t="n">
+        <v>554203.1946583912</v>
+      </c>
+      <c r="L2" t="n">
+        <v>554203.1946583915</v>
+      </c>
+      <c r="M2" t="n">
+        <v>554203.1946583913</v>
+      </c>
+      <c r="N2" t="n">
+        <v>554203.1946583913</v>
+      </c>
+      <c r="O2" t="n">
         <v>554203.1946583911</v>
-      </c>
-      <c r="L2" t="n">
-        <v>554203.1946583913</v>
-      </c>
-      <c r="M2" t="n">
-        <v>554203.194658392</v>
-      </c>
-      <c r="N2" t="n">
-        <v>554203.1946583919</v>
-      </c>
-      <c r="O2" t="n">
-        <v>554203.1946583918</v>
       </c>
       <c r="P2" t="n">
         <v>554203.1946583916</v>
@@ -26375,31 +26375,31 @@
         <v>306415.5272794352</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>97259.69009554028</v>
+        <v>97259.69009554024</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151851.7906719066</v>
+        <v>151851.7906719067</v>
       </c>
       <c r="K3" t="n">
         <v>5.5409215677243e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>97259.69009554021</v>
+        <v>97259.69009554024</v>
       </c>
       <c r="M3" t="n">
-        <v>41944.38525513445</v>
+        <v>41944.38525513435</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
         <v>21941.98208274493</v>
@@ -26479,7 +26479,7 @@
         <v>29925.21762447104</v>
       </c>
       <c r="F5" t="n">
-        <v>29925.21762447104</v>
+        <v>29925.21762447105</v>
       </c>
       <c r="G5" t="n">
         <v>40145.87373277351</v>
@@ -26500,7 +26500,7 @@
         <v>57622.34556334945</v>
       </c>
       <c r="M5" t="n">
-        <v>49949.23426624525</v>
+        <v>49949.23426624526</v>
       </c>
       <c r="N5" t="n">
         <v>49949.23426624526</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66983.93808503562</v>
+        <v>66979.5245071674</v>
       </c>
       <c r="C6" t="n">
-        <v>66983.93808503562</v>
+        <v>66979.52450716763</v>
       </c>
       <c r="D6" t="n">
-        <v>66983.93808503574</v>
+        <v>66979.52450716763</v>
       </c>
       <c r="E6" t="n">
-        <v>-201505.7458996735</v>
+        <v>-201800.749779755</v>
       </c>
       <c r="F6" t="n">
-        <v>104909.7813797616</v>
+        <v>104614.7774996804</v>
       </c>
       <c r="G6" t="n">
-        <v>9781.481897891223</v>
+        <v>9781.481897891106</v>
       </c>
       <c r="H6" t="n">
         <v>107041.1719934314</v>
@@ -26543,22 +26543,22 @@
         <v>107041.1719934314</v>
       </c>
       <c r="J6" t="n">
-        <v>-57371.44296045172</v>
+        <v>-57371.44296045184</v>
       </c>
       <c r="K6" t="n">
-        <v>94480.3477114546</v>
+        <v>94480.34771145471</v>
       </c>
       <c r="L6" t="n">
-        <v>-2779.342384085307</v>
+        <v>-2779.34238408519</v>
       </c>
       <c r="M6" t="n">
-        <v>61160.36719876384</v>
+        <v>61160.36719876314</v>
       </c>
       <c r="N6" t="n">
-        <v>103104.7524538981</v>
+        <v>103104.7524538974</v>
       </c>
       <c r="O6" t="n">
-        <v>81162.77037115302</v>
+        <v>81162.77037115232</v>
       </c>
       <c r="P6" t="n">
         <v>103104.7524538979</v>
@@ -26701,22 +26701,22 @@
         <v>300.2059350711955</v>
       </c>
       <c r="H2" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="I2" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="J2" t="n">
         <v>149.0020902228565</v>
       </c>
       <c r="K2" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="L2" t="n">
         <v>149.0020902228565</v>
       </c>
       <c r="M2" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917744</v>
       </c>
       <c r="N2" t="n">
         <v>201.4325717917745</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>129.6775928968631</v>
+        <v>129.6775928968632</v>
       </c>
       <c r="F3" t="n">
-        <v>129.6775928968631</v>
+        <v>129.6775928968632</v>
       </c>
       <c r="G3" t="n">
-        <v>129.6775928968631</v>
+        <v>129.6775928968632</v>
       </c>
       <c r="H3" t="n">
-        <v>129.6775928968631</v>
+        <v>129.6775928968632</v>
       </c>
       <c r="I3" t="n">
-        <v>129.6775928968631</v>
+        <v>129.6775928968632</v>
       </c>
       <c r="J3" t="n">
-        <v>129.6775928968631</v>
+        <v>129.6775928968632</v>
       </c>
       <c r="K3" t="n">
-        <v>129.6775928968631</v>
+        <v>129.6775928968632</v>
       </c>
       <c r="L3" t="n">
-        <v>129.6775928968631</v>
+        <v>129.6775928968632</v>
       </c>
       <c r="M3" t="n">
-        <v>129.6775928968631</v>
+        <v>129.6775928968632</v>
       </c>
       <c r="N3" t="n">
-        <v>129.6775928968631</v>
+        <v>129.6775928968632</v>
       </c>
       <c r="O3" t="n">
-        <v>129.6775928968631</v>
+        <v>129.6775928968632</v>
       </c>
       <c r="P3" t="n">
-        <v>129.6775928968631</v>
+        <v>129.6775928968632</v>
       </c>
     </row>
     <row r="4">
@@ -26820,7 +26820,7 @@
         <v>695.2124558429689</v>
       </c>
       <c r="M4" t="n">
-        <v>496.5136161699169</v>
+        <v>496.513616169917</v>
       </c>
       <c r="N4" t="n">
         <v>496.513616169917</v>
@@ -26917,19 +26917,19 @@
         <v>178.6313224517702</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>121.5746126194254</v>
+        <v>121.5746126194253</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.4274776034311</v>
+        <v>27.42747760343116</v>
       </c>
       <c r="K2" t="n">
         <v>6.926151959655375e-14</v>
@@ -26938,10 +26938,10 @@
         <v>121.5746126194253</v>
       </c>
       <c r="M2" t="n">
-        <v>52.43048156891805</v>
+        <v>52.43048156891794</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
         <v>27.42747760343116</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>129.6775928968631</v>
+        <v>129.6775928968632</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27154,19 +27154,19 @@
         <v>178.6313224517702</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>121.5746126194254</v>
+        <v>121.5746126194253</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>27.4274776034311</v>
+        <v>27.42747760343116</v>
       </c>
       <c r="P2" t="n">
         <v>6.926151959655375e-14</v>
@@ -28169,7 +28169,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>106.8258101000574</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -28178,7 +28178,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.0645880011306</v>
@@ -28217,25 +28217,25 @@
         <v>82.83975863332242</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T12" t="n">
-        <v>178.6313224517702</v>
+        <v>0.3416087588242647</v>
       </c>
       <c r="U12" t="n">
         <v>178.6313224517702</v>
       </c>
       <c r="V12" t="n">
-        <v>34.10174747637336</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="W12" t="n">
-        <v>178.6313224517702</v>
+        <v>178.1420189009867</v>
       </c>
       <c r="X12" t="n">
-        <v>178.6313224517702</v>
+        <v>7.074145530425568</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.6313224517702</v>
+        <v>6.983856104252453</v>
       </c>
     </row>
     <row r="13">
@@ -28251,7 +28251,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>178.6313224517702</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -28272,7 +28272,7 @@
         <v>76.82634995341205</v>
       </c>
       <c r="K13" t="n">
-        <v>3.44125003393877</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>136.3424643433046</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>33.45709946749665</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>66.58072672426806</v>
+        <v>66.58072672426805</v>
       </c>
       <c r="R13" t="n">
         <v>166.7788770416304</v>
@@ -28409,10 +28409,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -28421,10 +28421,10 @@
         <v>137.0645880011306</v>
       </c>
       <c r="H15" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>79.79315073593983</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28463,16 +28463,16 @@
         <v>178.6313224517702</v>
       </c>
       <c r="V15" t="n">
-        <v>120.8094062447188</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="W15" t="n">
-        <v>178.6313224517702</v>
+        <v>148.6966812739948</v>
       </c>
       <c r="X15" t="n">
         <v>178.6313224517702</v>
       </c>
       <c r="Y15" t="n">
-        <v>6.983856104252425</v>
+        <v>178.6313224517702</v>
       </c>
     </row>
     <row r="16">
@@ -28491,7 +28491,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="F16" t="n">
         <v>178.6313224517702</v>
@@ -28506,16 +28506,16 @@
         <v>148.4181228403268</v>
       </c>
       <c r="J16" t="n">
-        <v>76.82634995341205</v>
+        <v>178.6313224517702</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>14.13056821699071</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>122.4587211649718</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28524,10 +28524,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.586957078402627</v>
       </c>
       <c r="Q16" t="n">
-        <v>66.58072672426806</v>
+        <v>66.58072672426805</v>
       </c>
       <c r="R16" t="n">
         <v>166.7788770416304</v>
@@ -28643,25 +28643,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,16 +28688,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>82.83975863332242</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>78.13496186798804</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>199.0404484318762</v>
+        <v>0.3416087588242647</v>
       </c>
       <c r="U18" t="n">
-        <v>27.22419180515446</v>
+        <v>75.56185602526941</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -28731,7 +28731,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.7571345188087</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>66.58072672426805</v>
       </c>
       <c r="R19" t="n">
         <v>166.7788770416304</v>
@@ -28773,10 +28773,10 @@
         <v>219.9413202405249</v>
       </c>
       <c r="T19" t="n">
-        <v>141.4354566622906</v>
+        <v>226.9464342043221</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3062741834191</v>
+        <v>279.6356179400508</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="C20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="D20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="E20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="F20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="G20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="H20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="I20" t="n">
         <v>190.3778176099785</v>
@@ -28858,16 +28858,16 @@
         <v>251.303947551327</v>
       </c>
       <c r="V20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="W20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="X20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="Y20" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
     </row>
     <row r="21">
@@ -28883,19 +28883,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5415757500918</v>
+        <v>17.35192759494043</v>
       </c>
       <c r="I21" t="n">
         <v>79.79315073593983</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>82.83975863332242</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>166.5021842555528</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>24.02651044785216</v>
+        <v>199.0404484318762</v>
       </c>
       <c r="U21" t="n">
-        <v>27.22419180515446</v>
+        <v>225.9230314782064</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>52.99614348786767</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.983856104252425</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>39.47023237204348</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28974,7 +28974,7 @@
         <v>167.7571345188087</v>
       </c>
       <c r="H22" t="n">
-        <v>160.1480792967325</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>148.4181228403268</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>66.58072672426806</v>
+        <v>66.58072672426805</v>
       </c>
       <c r="R22" t="n">
         <v>166.7788770416304</v>
@@ -29019,7 +29019,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>153.2599923285925</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="C23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="D23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="E23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="F23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="G23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="H23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="I23" t="n">
         <v>190.3778176099785</v>
@@ -29095,16 +29095,16 @@
         <v>251.303947551327</v>
       </c>
       <c r="V23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="W23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="X23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
       <c r="Y23" t="n">
-        <v>300.2059350711956</v>
+        <v>300.2059350711955</v>
       </c>
     </row>
     <row r="24">
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>158.021429921396</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -29123,13 +29123,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>109.5415757500918</v>
@@ -29165,22 +29165,22 @@
         <v>82.83975863332242</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T24" t="n">
         <v>199.0404484318762</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9230314782064</v>
+        <v>61.12463897480922</v>
       </c>
       <c r="V24" t="n">
-        <v>34.10174747637333</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>52.99614348786767</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>7.07414553042554</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.58072672426806</v>
+        <v>66.58072672426805</v>
       </c>
       <c r="R25" t="n">
-        <v>166.7788770416304</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>219.9413202405249</v>
@@ -29250,16 +29250,16 @@
         <v>226.9464342043221</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3062741834191</v>
+        <v>152.5753241184232</v>
       </c>
       <c r="V25" t="n">
-        <v>53.43880365077607</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>123.8986679554628</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -29317,7 +29317,7 @@
         <v>149.0020902228565</v>
       </c>
       <c r="Q26" t="n">
-        <v>149.0020902228565</v>
+        <v>149.0020902228566</v>
       </c>
       <c r="R26" t="n">
         <v>149.0020902228565</v>
@@ -29351,25 +29351,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>65.57455357684792</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>149.0020902228565</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.0645880011306</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -29408,16 +29408,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>31.60394159177358</v>
+      </c>
+      <c r="X27" t="n">
         <v>149.0020902228565</v>
-      </c>
-      <c r="V27" t="n">
-        <v>149.0020902228565</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -29439,10 +29439,10 @@
         <v>149.0020902228565</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="G28" t="n">
         <v>149.0020902228565</v>
@@ -29460,7 +29460,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>149.0020902228565</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>149.0020902228565</v>
@@ -29472,10 +29472,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>31.51432709122855</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.58072672426806</v>
+        <v>91.94588403928402</v>
       </c>
       <c r="R28" t="n">
         <v>149.0020902228565</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="C29" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="D29" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="E29" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="F29" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="G29" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="H29" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="I29" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="J29" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="K29" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="L29" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="M29" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="N29" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228563</v>
       </c>
       <c r="O29" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="P29" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="Q29" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="R29" t="n">
-        <v>149.002090222856</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="S29" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="T29" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="U29" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="V29" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="W29" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="X29" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="Y29" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
     </row>
     <row r="30">
@@ -29588,28 +29588,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="C30" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>149.0020902228566</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>40.00623220871579</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5415757500918</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>79.79315073593983</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29642,7 +29642,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>92.27637069361694</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -29651,13 +29651,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>149.0020902228566</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
     </row>
     <row r="31">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="C31" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="D31" t="n">
-        <v>149.0020902228566</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>149.0020902228566</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="H31" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="I31" t="n">
-        <v>149.0020902228566</v>
+        <v>148.4181228403268</v>
       </c>
       <c r="J31" t="n">
-        <v>149.0020902228566</v>
+        <v>76.82634995341205</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="L31" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="M31" t="n">
-        <v>104.1756674621843</v>
+        <v>31.90094429587219</v>
       </c>
       <c r="N31" t="n">
-        <v>149.0020902228566</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="Q31" t="n">
-        <v>66.58072672426806</v>
+        <v>66.58072672426805</v>
       </c>
       <c r="R31" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="S31" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="T31" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="U31" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="V31" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="W31" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="X31" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="Y31" t="n">
-        <v>149.0020902228566</v>
+        <v>149.0020902228565</v>
       </c>
     </row>
     <row r="32">
@@ -29837,10 +29837,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0645880011306</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -29879,16 +29879,16 @@
         <v>149.0020902228565</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="U33" t="n">
+        <v>80.33886847189089</v>
+      </c>
+      <c r="V33" t="n">
         <v>149.0020902228565</v>
       </c>
-      <c r="V33" t="n">
-        <v>96.2092485230898</v>
-      </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -29910,13 +29910,13 @@
         <v>149.0020902228565</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="F34" t="n">
-        <v>149.0020902228565</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>149.0020902228565</v>
@@ -29928,28 +29928,28 @@
         <v>149.0020902228565</v>
       </c>
       <c r="J34" t="n">
-        <v>76.82634995341205</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>149.0020902228565</v>
       </c>
       <c r="L34" t="n">
+        <v>105.188582085823</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
         <v>149.0020902228565</v>
       </c>
-      <c r="M34" t="n">
-        <v>149.0020902228565</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
       <c r="O34" t="n">
-        <v>94.31666143768581</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>149.0020902228565</v>
+        <v>66.58072672426805</v>
       </c>
       <c r="R34" t="n">
         <v>149.0020902228565</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917744</v>
       </c>
       <c r="C35" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917744</v>
       </c>
       <c r="D35" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917744</v>
       </c>
       <c r="E35" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917744</v>
       </c>
       <c r="F35" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917744</v>
       </c>
       <c r="G35" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917744</v>
       </c>
       <c r="H35" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917744</v>
       </c>
       <c r="I35" t="n">
         <v>190.3778176099785</v>
@@ -30013,46 +30013,46 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>34.26460399572079</v>
+        <v>185.8076198892766</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>167.0114975788358</v>
       </c>
       <c r="R35" t="n">
-        <v>117.1219416806167</v>
+        <v>201.4325717917744</v>
       </c>
       <c r="S35" t="n">
         <v>197.1405594429799</v>
       </c>
       <c r="T35" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917744</v>
       </c>
       <c r="U35" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917744</v>
       </c>
       <c r="V35" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917744</v>
       </c>
       <c r="W35" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917744</v>
       </c>
       <c r="X35" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917744</v>
       </c>
       <c r="Y35" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917744</v>
       </c>
     </row>
     <row r="36">
@@ -30068,22 +30068,22 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>119.692903097185</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H36" t="n">
         <v>109.5415757500918</v>
       </c>
       <c r="I36" t="n">
-        <v>79.79315073593983</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30113,13 +30113,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>199.0404484318762</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1.968979164604093</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30141,10 +30141,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>185.5570586236978</v>
       </c>
       <c r="C37" t="n">
-        <v>172.9718995403883</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.58072672426806</v>
+        <v>66.58072672426805</v>
       </c>
       <c r="R37" t="n">
         <v>166.7788770416304</v>
       </c>
       <c r="S37" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917744</v>
       </c>
       <c r="T37" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917744</v>
       </c>
       <c r="U37" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917744</v>
       </c>
       <c r="V37" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917744</v>
       </c>
       <c r="W37" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917744</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917744</v>
       </c>
       <c r="Y37" t="n">
-        <v>201.4325717917745</v>
+        <v>201.4325717917744</v>
       </c>
     </row>
     <row r="38">
@@ -30244,10 +30244,10 @@
         <v>190.3778176099785</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30256,19 +30256,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>195.5598675371588</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>40.1373082503373</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>117.1219416806167</v>
+        <v>151.3865456763376</v>
       </c>
       <c r="S38" t="n">
         <v>197.1405594429799</v>
@@ -30302,7 +30302,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -30314,10 +30314,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>90.93006246042593</v>
       </c>
       <c r="H39" t="n">
-        <v>82.33162436776475</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30350,10 +30350,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>199.0404484318762</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30420,10 +30420,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>5.725078441759951</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.30580516602852</v>
+        <v>66.58072672426805</v>
       </c>
       <c r="R40" t="n">
         <v>166.7788770416304</v>
@@ -30478,10 +30478,10 @@
         <v>201.4325717917745</v>
       </c>
       <c r="I41" t="n">
-        <v>190.3778176099785</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="J41" t="n">
-        <v>34.26460399572152</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30505,7 +30505,7 @@
         <v>201.4325717917745</v>
       </c>
       <c r="R41" t="n">
-        <v>117.1219416806167</v>
+        <v>140.3317914945417</v>
       </c>
       <c r="S41" t="n">
         <v>197.1405594429799</v>
@@ -30536,13 +30536,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>160.9364083570364</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -30551,13 +30551,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.5415757500918</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>79.79315073593983</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30587,13 +30587,13 @@
         <v>82.83975863332242</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>166.5021842555528</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>183.4457306206021</v>
       </c>
       <c r="U42" t="n">
-        <v>201.4325717917745</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30615,7 +30615,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>185.5570586236972</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>5.725078441759976</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>66.58072672426806</v>
+        <v>66.58072672426805</v>
       </c>
       <c r="R43" t="n">
         <v>166.7788770416304</v>
@@ -30718,7 +30718,7 @@
         <v>190.3778176099785</v>
       </c>
       <c r="J44" t="n">
-        <v>29.9725916469268</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>201.4325717917745</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>151.3865456763377</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30739,13 +30739,13 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
         <v>201.4325717917745</v>
       </c>
-      <c r="R44" t="n">
-        <v>117.1219416806167</v>
-      </c>
       <c r="S44" t="n">
-        <v>201.4325717917745</v>
+        <v>197.1405594429799</v>
       </c>
       <c r="T44" t="n">
         <v>201.4325717917745</v>
@@ -30773,10 +30773,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30785,13 +30785,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0645880011306</v>
       </c>
       <c r="H45" t="n">
-        <v>109.5415757500918</v>
+        <v>61.61217595655912</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30833,13 +30833,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>7.689436759580047</v>
+        <v>201.4325717917745</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30870,7 +30870,7 @@
         <v>167.7571345188087</v>
       </c>
       <c r="H46" t="n">
-        <v>165.8731577384929</v>
+        <v>160.1480792967325</v>
       </c>
       <c r="I46" t="n">
         <v>148.4181228403268</v>
@@ -30894,10 +30894,10 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>5.725078441760409</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.58072672426806</v>
+        <v>66.58072672426805</v>
       </c>
       <c r="R46" t="n">
         <v>166.7788770416304</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5213169563692986</v>
+        <v>0.5213169563692988</v>
       </c>
       <c r="H11" t="n">
-        <v>5.338937279417081</v>
+        <v>5.338937279417082</v>
       </c>
       <c r="I11" t="n">
-        <v>20.0980719604274</v>
+        <v>20.09807196042741</v>
       </c>
       <c r="J11" t="n">
-        <v>44.2461250256488</v>
+        <v>44.24612502564881</v>
       </c>
       <c r="K11" t="n">
-        <v>66.31347178876122</v>
+        <v>66.31347178876123</v>
       </c>
       <c r="L11" t="n">
-        <v>82.26772559224817</v>
+        <v>82.26772559224818</v>
       </c>
       <c r="M11" t="n">
-        <v>91.53869601508067</v>
+        <v>91.53869601508069</v>
       </c>
       <c r="N11" t="n">
-        <v>93.01988781736495</v>
+        <v>93.01988781736497</v>
       </c>
       <c r="O11" t="n">
-        <v>87.83604233246773</v>
+        <v>87.83604233246776</v>
       </c>
       <c r="P11" t="n">
-        <v>74.96602997210066</v>
+        <v>74.96602997210067</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.29636647212514</v>
+        <v>56.29636647212515</v>
       </c>
       <c r="R11" t="n">
-        <v>32.74717626053298</v>
+        <v>32.74717626053299</v>
       </c>
       <c r="S11" t="n">
-        <v>11.8795101432654</v>
+        <v>11.87951014326541</v>
       </c>
       <c r="T11" t="n">
         <v>2.282064976506606</v>
@@ -31835,37 +31835,37 @@
         <v>2.693868486404648</v>
       </c>
       <c r="I12" t="n">
-        <v>9.603482115475243</v>
+        <v>9.603482115475245</v>
       </c>
       <c r="J12" t="n">
         <v>26.35268894897481</v>
       </c>
       <c r="K12" t="n">
-        <v>45.04094280833783</v>
+        <v>45.04094280833785</v>
       </c>
       <c r="L12" t="n">
-        <v>60.56310600338877</v>
+        <v>60.56310600338879</v>
       </c>
       <c r="M12" t="n">
-        <v>70.67428812879039</v>
+        <v>70.67428812879041</v>
       </c>
       <c r="N12" t="n">
-        <v>72.54482623765176</v>
+        <v>72.54482623765178</v>
       </c>
       <c r="O12" t="n">
-        <v>66.36434322524654</v>
+        <v>66.36434322524656</v>
       </c>
       <c r="P12" t="n">
         <v>53.2632362221097</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.6050628648142</v>
+        <v>35.60506286481421</v>
       </c>
       <c r="R12" t="n">
         <v>17.31807551932071</v>
       </c>
       <c r="S12" t="n">
-        <v>5.180986848285047</v>
+        <v>5.180986848285048</v>
       </c>
       <c r="T12" t="n">
         <v>1.124280262945445</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.233844839650081</v>
+        <v>0.2338448396500811</v>
       </c>
       <c r="H13" t="n">
-        <v>2.079093210707085</v>
+        <v>2.079093210707086</v>
       </c>
       <c r="I13" t="n">
-        <v>7.03235208693153</v>
+        <v>7.032352086931532</v>
       </c>
       <c r="J13" t="n">
         <v>16.53283016326073</v>
@@ -31923,31 +31923,31 @@
         <v>27.16851864298214</v>
       </c>
       <c r="L13" t="n">
-        <v>34.76635006943114</v>
+        <v>34.76635006943116</v>
       </c>
       <c r="M13" t="n">
-        <v>36.65624154623951</v>
+        <v>36.65624154623952</v>
       </c>
       <c r="N13" t="n">
-        <v>35.78463805299833</v>
+        <v>35.78463805299834</v>
       </c>
       <c r="O13" t="n">
-        <v>33.05290515344965</v>
+        <v>33.05290515344966</v>
       </c>
       <c r="P13" t="n">
-        <v>28.28247042458797</v>
+        <v>28.28247042458798</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.58131652742633</v>
+        <v>19.58131652742634</v>
       </c>
       <c r="R13" t="n">
         <v>10.5145143355391</v>
       </c>
       <c r="S13" t="n">
-        <v>4.075277796447319</v>
+        <v>4.07527779644732</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9991552239594369</v>
+        <v>0.9991552239594371</v>
       </c>
       <c r="U13" t="n">
         <v>0.01275517307182262</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5213169563692986</v>
+        <v>0.5213169563692988</v>
       </c>
       <c r="H14" t="n">
-        <v>5.338937279417081</v>
+        <v>5.338937279417082</v>
       </c>
       <c r="I14" t="n">
-        <v>20.0980719604274</v>
+        <v>20.09807196042741</v>
       </c>
       <c r="J14" t="n">
-        <v>44.2461250256488</v>
+        <v>44.24612502564881</v>
       </c>
       <c r="K14" t="n">
-        <v>66.31347178876122</v>
+        <v>66.31347178876123</v>
       </c>
       <c r="L14" t="n">
-        <v>82.26772559224817</v>
+        <v>82.26772559224818</v>
       </c>
       <c r="M14" t="n">
-        <v>91.53869601508067</v>
+        <v>91.53869601508069</v>
       </c>
       <c r="N14" t="n">
-        <v>93.01988781736495</v>
+        <v>93.01988781736497</v>
       </c>
       <c r="O14" t="n">
-        <v>87.83604233246773</v>
+        <v>87.83604233246776</v>
       </c>
       <c r="P14" t="n">
-        <v>74.96602997210066</v>
+        <v>74.96602997210067</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.29636647212514</v>
+        <v>56.29636647212515</v>
       </c>
       <c r="R14" t="n">
-        <v>32.74717626053298</v>
+        <v>32.74717626053299</v>
       </c>
       <c r="S14" t="n">
-        <v>11.8795101432654</v>
+        <v>11.87951014326541</v>
       </c>
       <c r="T14" t="n">
         <v>2.282064976506606</v>
@@ -32072,37 +32072,37 @@
         <v>2.693868486404648</v>
       </c>
       <c r="I15" t="n">
-        <v>9.603482115475243</v>
+        <v>9.603482115475245</v>
       </c>
       <c r="J15" t="n">
         <v>26.35268894897481</v>
       </c>
       <c r="K15" t="n">
-        <v>45.04094280833783</v>
+        <v>45.04094280833785</v>
       </c>
       <c r="L15" t="n">
-        <v>60.56310600338877</v>
+        <v>60.56310600338879</v>
       </c>
       <c r="M15" t="n">
-        <v>70.67428812879039</v>
+        <v>70.67428812879041</v>
       </c>
       <c r="N15" t="n">
-        <v>72.54482623765176</v>
+        <v>72.54482623765178</v>
       </c>
       <c r="O15" t="n">
-        <v>66.36434322524654</v>
+        <v>66.36434322524656</v>
       </c>
       <c r="P15" t="n">
         <v>53.2632362221097</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.6050628648142</v>
+        <v>35.60506286481421</v>
       </c>
       <c r="R15" t="n">
         <v>17.31807551932071</v>
       </c>
       <c r="S15" t="n">
-        <v>5.180986848285047</v>
+        <v>5.180986848285048</v>
       </c>
       <c r="T15" t="n">
         <v>1.124280262945445</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.233844839650081</v>
+        <v>0.2338448396500811</v>
       </c>
       <c r="H16" t="n">
-        <v>2.079093210707085</v>
+        <v>2.079093210707086</v>
       </c>
       <c r="I16" t="n">
-        <v>7.03235208693153</v>
+        <v>7.032352086931532</v>
       </c>
       <c r="J16" t="n">
         <v>16.53283016326073</v>
@@ -32160,31 +32160,31 @@
         <v>27.16851864298214</v>
       </c>
       <c r="L16" t="n">
-        <v>34.76635006943114</v>
+        <v>34.76635006943116</v>
       </c>
       <c r="M16" t="n">
-        <v>36.65624154623951</v>
+        <v>36.65624154623952</v>
       </c>
       <c r="N16" t="n">
-        <v>35.78463805299833</v>
+        <v>35.78463805299834</v>
       </c>
       <c r="O16" t="n">
-        <v>33.05290515344965</v>
+        <v>33.05290515344966</v>
       </c>
       <c r="P16" t="n">
-        <v>28.28247042458797</v>
+        <v>28.28247042458798</v>
       </c>
       <c r="Q16" t="n">
-        <v>19.58131652742633</v>
+        <v>19.58131652742634</v>
       </c>
       <c r="R16" t="n">
         <v>10.5145143355391</v>
       </c>
       <c r="S16" t="n">
-        <v>4.075277796447319</v>
+        <v>4.07527779644732</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9991552239594369</v>
+        <v>0.9991552239594371</v>
       </c>
       <c r="U16" t="n">
         <v>0.01275517307182262</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5213169563692986</v>
+        <v>0.5213169563692988</v>
       </c>
       <c r="H17" t="n">
-        <v>5.338937279417081</v>
+        <v>5.338937279417082</v>
       </c>
       <c r="I17" t="n">
-        <v>20.0980719604274</v>
+        <v>20.09807196042741</v>
       </c>
       <c r="J17" t="n">
-        <v>44.2461250256488</v>
+        <v>44.24612502564881</v>
       </c>
       <c r="K17" t="n">
-        <v>66.31347178876122</v>
+        <v>66.31347178876123</v>
       </c>
       <c r="L17" t="n">
-        <v>82.26772559224817</v>
+        <v>82.26772559224818</v>
       </c>
       <c r="M17" t="n">
-        <v>91.53869601508067</v>
+        <v>91.53869601508069</v>
       </c>
       <c r="N17" t="n">
-        <v>93.01988781736495</v>
+        <v>93.01988781736497</v>
       </c>
       <c r="O17" t="n">
-        <v>87.83604233246773</v>
+        <v>87.83604233246776</v>
       </c>
       <c r="P17" t="n">
-        <v>74.96602997210066</v>
+        <v>74.96602997210067</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.29636647212514</v>
+        <v>56.29636647212515</v>
       </c>
       <c r="R17" t="n">
-        <v>32.74717626053298</v>
+        <v>32.74717626053299</v>
       </c>
       <c r="S17" t="n">
-        <v>11.8795101432654</v>
+        <v>11.87951014326541</v>
       </c>
       <c r="T17" t="n">
         <v>2.282064976506606</v>
@@ -32309,37 +32309,37 @@
         <v>2.693868486404648</v>
       </c>
       <c r="I18" t="n">
-        <v>9.603482115475243</v>
+        <v>9.603482115475245</v>
       </c>
       <c r="J18" t="n">
         <v>26.35268894897481</v>
       </c>
       <c r="K18" t="n">
-        <v>45.04094280833783</v>
+        <v>45.04094280833785</v>
       </c>
       <c r="L18" t="n">
-        <v>60.56310600338877</v>
+        <v>60.56310600338879</v>
       </c>
       <c r="M18" t="n">
-        <v>70.67428812879039</v>
+        <v>70.67428812879041</v>
       </c>
       <c r="N18" t="n">
-        <v>72.54482623765176</v>
+        <v>72.54482623765178</v>
       </c>
       <c r="O18" t="n">
-        <v>66.36434322524654</v>
+        <v>66.36434322524656</v>
       </c>
       <c r="P18" t="n">
         <v>53.2632362221097</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.6050628648142</v>
+        <v>35.60506286481421</v>
       </c>
       <c r="R18" t="n">
         <v>17.31807551932071</v>
       </c>
       <c r="S18" t="n">
-        <v>5.180986848285047</v>
+        <v>5.180986848285048</v>
       </c>
       <c r="T18" t="n">
         <v>1.124280262945445</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.233844839650081</v>
+        <v>0.2338448396500811</v>
       </c>
       <c r="H19" t="n">
-        <v>2.079093210707085</v>
+        <v>2.079093210707086</v>
       </c>
       <c r="I19" t="n">
-        <v>7.03235208693153</v>
+        <v>7.032352086931532</v>
       </c>
       <c r="J19" t="n">
         <v>16.53283016326073</v>
@@ -32397,31 +32397,31 @@
         <v>27.16851864298214</v>
       </c>
       <c r="L19" t="n">
-        <v>34.76635006943114</v>
+        <v>34.76635006943116</v>
       </c>
       <c r="M19" t="n">
-        <v>36.65624154623951</v>
+        <v>36.65624154623952</v>
       </c>
       <c r="N19" t="n">
-        <v>35.78463805299833</v>
+        <v>35.78463805299834</v>
       </c>
       <c r="O19" t="n">
-        <v>33.05290515344965</v>
+        <v>33.05290515344966</v>
       </c>
       <c r="P19" t="n">
-        <v>28.28247042458797</v>
+        <v>28.28247042458798</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.58131652742633</v>
+        <v>19.58131652742634</v>
       </c>
       <c r="R19" t="n">
         <v>10.5145143355391</v>
       </c>
       <c r="S19" t="n">
-        <v>4.075277796447319</v>
+        <v>4.07527779644732</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9991552239594369</v>
+        <v>0.9991552239594371</v>
       </c>
       <c r="U19" t="n">
         <v>0.01275517307182262</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5213169563692986</v>
+        <v>0.5213169563692988</v>
       </c>
       <c r="H20" t="n">
-        <v>5.338937279417081</v>
+        <v>5.338937279417082</v>
       </c>
       <c r="I20" t="n">
-        <v>20.0980719604274</v>
+        <v>20.09807196042741</v>
       </c>
       <c r="J20" t="n">
-        <v>44.2461250256488</v>
+        <v>44.24612502564881</v>
       </c>
       <c r="K20" t="n">
-        <v>66.31347178876122</v>
+        <v>66.31347178876123</v>
       </c>
       <c r="L20" t="n">
-        <v>82.26772559224817</v>
+        <v>82.26772559224818</v>
       </c>
       <c r="M20" t="n">
-        <v>91.53869601508067</v>
+        <v>91.53869601508069</v>
       </c>
       <c r="N20" t="n">
-        <v>93.01988781736495</v>
+        <v>93.01988781736497</v>
       </c>
       <c r="O20" t="n">
-        <v>87.83604233246773</v>
+        <v>87.83604233246776</v>
       </c>
       <c r="P20" t="n">
-        <v>74.96602997210066</v>
+        <v>74.96602997210067</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.29636647212514</v>
+        <v>56.29636647212515</v>
       </c>
       <c r="R20" t="n">
-        <v>32.74717626053298</v>
+        <v>32.74717626053299</v>
       </c>
       <c r="S20" t="n">
-        <v>11.8795101432654</v>
+        <v>11.87951014326541</v>
       </c>
       <c r="T20" t="n">
         <v>2.282064976506606</v>
@@ -32546,37 +32546,37 @@
         <v>2.693868486404648</v>
       </c>
       <c r="I21" t="n">
-        <v>9.603482115475243</v>
+        <v>9.603482115475245</v>
       </c>
       <c r="J21" t="n">
         <v>26.35268894897481</v>
       </c>
       <c r="K21" t="n">
-        <v>45.04094280833783</v>
+        <v>45.04094280833785</v>
       </c>
       <c r="L21" t="n">
-        <v>60.56310600338877</v>
+        <v>60.56310600338879</v>
       </c>
       <c r="M21" t="n">
-        <v>70.67428812879039</v>
+        <v>70.67428812879041</v>
       </c>
       <c r="N21" t="n">
-        <v>72.54482623765176</v>
+        <v>72.54482623765178</v>
       </c>
       <c r="O21" t="n">
-        <v>66.36434322524654</v>
+        <v>66.36434322524656</v>
       </c>
       <c r="P21" t="n">
         <v>53.2632362221097</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.6050628648142</v>
+        <v>35.60506286481421</v>
       </c>
       <c r="R21" t="n">
         <v>17.31807551932071</v>
       </c>
       <c r="S21" t="n">
-        <v>5.180986848285047</v>
+        <v>5.180986848285048</v>
       </c>
       <c r="T21" t="n">
         <v>1.124280262945445</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.233844839650081</v>
+        <v>0.2338448396500811</v>
       </c>
       <c r="H22" t="n">
-        <v>2.079093210707085</v>
+        <v>2.079093210707086</v>
       </c>
       <c r="I22" t="n">
-        <v>7.03235208693153</v>
+        <v>7.032352086931532</v>
       </c>
       <c r="J22" t="n">
         <v>16.53283016326073</v>
@@ -32634,31 +32634,31 @@
         <v>27.16851864298214</v>
       </c>
       <c r="L22" t="n">
-        <v>34.76635006943114</v>
+        <v>34.76635006943116</v>
       </c>
       <c r="M22" t="n">
-        <v>36.65624154623951</v>
+        <v>36.65624154623952</v>
       </c>
       <c r="N22" t="n">
-        <v>35.78463805299833</v>
+        <v>35.78463805299834</v>
       </c>
       <c r="O22" t="n">
-        <v>33.05290515344965</v>
+        <v>33.05290515344966</v>
       </c>
       <c r="P22" t="n">
-        <v>28.28247042458797</v>
+        <v>28.28247042458798</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.58131652742633</v>
+        <v>19.58131652742634</v>
       </c>
       <c r="R22" t="n">
         <v>10.5145143355391</v>
       </c>
       <c r="S22" t="n">
-        <v>4.075277796447319</v>
+        <v>4.07527779644732</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9991552239594369</v>
+        <v>0.9991552239594371</v>
       </c>
       <c r="U22" t="n">
         <v>0.01275517307182262</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5213169563692986</v>
+        <v>0.5213169563692988</v>
       </c>
       <c r="H23" t="n">
-        <v>5.338937279417081</v>
+        <v>5.338937279417082</v>
       </c>
       <c r="I23" t="n">
-        <v>20.0980719604274</v>
+        <v>20.09807196042741</v>
       </c>
       <c r="J23" t="n">
-        <v>44.2461250256488</v>
+        <v>44.24612502564881</v>
       </c>
       <c r="K23" t="n">
-        <v>66.31347178876122</v>
+        <v>66.31347178876123</v>
       </c>
       <c r="L23" t="n">
-        <v>82.26772559224817</v>
+        <v>82.26772559224818</v>
       </c>
       <c r="M23" t="n">
-        <v>91.53869601508067</v>
+        <v>91.53869601508069</v>
       </c>
       <c r="N23" t="n">
-        <v>93.01988781736495</v>
+        <v>93.01988781736497</v>
       </c>
       <c r="O23" t="n">
-        <v>87.83604233246773</v>
+        <v>87.83604233246776</v>
       </c>
       <c r="P23" t="n">
-        <v>74.96602997210066</v>
+        <v>74.96602997210067</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.29636647212514</v>
+        <v>56.29636647212515</v>
       </c>
       <c r="R23" t="n">
-        <v>32.74717626053298</v>
+        <v>32.74717626053299</v>
       </c>
       <c r="S23" t="n">
-        <v>11.8795101432654</v>
+        <v>11.87951014326541</v>
       </c>
       <c r="T23" t="n">
         <v>2.282064976506606</v>
@@ -32783,37 +32783,37 @@
         <v>2.693868486404648</v>
       </c>
       <c r="I24" t="n">
-        <v>9.603482115475243</v>
+        <v>9.603482115475245</v>
       </c>
       <c r="J24" t="n">
         <v>26.35268894897481</v>
       </c>
       <c r="K24" t="n">
-        <v>45.04094280833783</v>
+        <v>45.04094280833785</v>
       </c>
       <c r="L24" t="n">
-        <v>60.56310600338877</v>
+        <v>60.56310600338879</v>
       </c>
       <c r="M24" t="n">
-        <v>70.67428812879039</v>
+        <v>70.67428812879041</v>
       </c>
       <c r="N24" t="n">
-        <v>72.54482623765176</v>
+        <v>72.54482623765178</v>
       </c>
       <c r="O24" t="n">
-        <v>66.36434322524654</v>
+        <v>66.36434322524656</v>
       </c>
       <c r="P24" t="n">
         <v>53.2632362221097</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.6050628648142</v>
+        <v>35.60506286481421</v>
       </c>
       <c r="R24" t="n">
         <v>17.31807551932071</v>
       </c>
       <c r="S24" t="n">
-        <v>5.180986848285047</v>
+        <v>5.180986848285048</v>
       </c>
       <c r="T24" t="n">
         <v>1.124280262945445</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.233844839650081</v>
+        <v>0.2338448396500811</v>
       </c>
       <c r="H25" t="n">
-        <v>2.079093210707085</v>
+        <v>2.079093210707086</v>
       </c>
       <c r="I25" t="n">
-        <v>7.03235208693153</v>
+        <v>7.032352086931532</v>
       </c>
       <c r="J25" t="n">
         <v>16.53283016326073</v>
@@ -32871,31 +32871,31 @@
         <v>27.16851864298214</v>
       </c>
       <c r="L25" t="n">
-        <v>34.76635006943114</v>
+        <v>34.76635006943116</v>
       </c>
       <c r="M25" t="n">
-        <v>36.65624154623951</v>
+        <v>36.65624154623952</v>
       </c>
       <c r="N25" t="n">
-        <v>35.78463805299833</v>
+        <v>35.78463805299834</v>
       </c>
       <c r="O25" t="n">
-        <v>33.05290515344965</v>
+        <v>33.05290515344966</v>
       </c>
       <c r="P25" t="n">
-        <v>28.28247042458797</v>
+        <v>28.28247042458798</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.58131652742633</v>
+        <v>19.58131652742634</v>
       </c>
       <c r="R25" t="n">
         <v>10.5145143355391</v>
       </c>
       <c r="S25" t="n">
-        <v>4.075277796447319</v>
+        <v>4.07527779644732</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9991552239594369</v>
+        <v>0.9991552239594371</v>
       </c>
       <c r="U25" t="n">
         <v>0.01275517307182262</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5213169563692986</v>
+        <v>0.5213169563692988</v>
       </c>
       <c r="H26" t="n">
-        <v>5.338937279417081</v>
+        <v>5.338937279417082</v>
       </c>
       <c r="I26" t="n">
-        <v>20.0980719604274</v>
+        <v>20.09807196042741</v>
       </c>
       <c r="J26" t="n">
-        <v>44.2461250256488</v>
+        <v>44.24612502564881</v>
       </c>
       <c r="K26" t="n">
-        <v>66.31347178876122</v>
+        <v>66.31347178876123</v>
       </c>
       <c r="L26" t="n">
-        <v>82.26772559224817</v>
+        <v>82.26772559224818</v>
       </c>
       <c r="M26" t="n">
-        <v>91.53869601508067</v>
+        <v>91.53869601508069</v>
       </c>
       <c r="N26" t="n">
-        <v>93.01988781736495</v>
+        <v>93.01988781736497</v>
       </c>
       <c r="O26" t="n">
-        <v>87.83604233246773</v>
+        <v>87.83604233246776</v>
       </c>
       <c r="P26" t="n">
-        <v>74.96602997210066</v>
+        <v>74.96602997210067</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.29636647212514</v>
+        <v>56.29636647212515</v>
       </c>
       <c r="R26" t="n">
-        <v>32.74717626053298</v>
+        <v>32.74717626053299</v>
       </c>
       <c r="S26" t="n">
-        <v>11.8795101432654</v>
+        <v>11.87951014326541</v>
       </c>
       <c r="T26" t="n">
         <v>2.282064976506606</v>
@@ -33020,37 +33020,37 @@
         <v>2.693868486404648</v>
       </c>
       <c r="I27" t="n">
-        <v>9.603482115475243</v>
+        <v>9.603482115475245</v>
       </c>
       <c r="J27" t="n">
         <v>26.35268894897481</v>
       </c>
       <c r="K27" t="n">
-        <v>45.04094280833783</v>
+        <v>45.04094280833785</v>
       </c>
       <c r="L27" t="n">
-        <v>60.56310600338877</v>
+        <v>60.56310600338879</v>
       </c>
       <c r="M27" t="n">
-        <v>70.67428812879039</v>
+        <v>70.67428812879041</v>
       </c>
       <c r="N27" t="n">
-        <v>72.54482623765176</v>
+        <v>72.54482623765178</v>
       </c>
       <c r="O27" t="n">
-        <v>66.36434322524654</v>
+        <v>66.36434322524656</v>
       </c>
       <c r="P27" t="n">
         <v>53.2632362221097</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.6050628648142</v>
+        <v>35.60506286481421</v>
       </c>
       <c r="R27" t="n">
         <v>17.31807551932071</v>
       </c>
       <c r="S27" t="n">
-        <v>5.180986848285047</v>
+        <v>5.180986848285048</v>
       </c>
       <c r="T27" t="n">
         <v>1.124280262945445</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.233844839650081</v>
+        <v>0.2338448396500811</v>
       </c>
       <c r="H28" t="n">
-        <v>2.079093210707085</v>
+        <v>2.079093210707086</v>
       </c>
       <c r="I28" t="n">
-        <v>7.03235208693153</v>
+        <v>7.032352086931532</v>
       </c>
       <c r="J28" t="n">
         <v>16.53283016326073</v>
@@ -33108,31 +33108,31 @@
         <v>27.16851864298214</v>
       </c>
       <c r="L28" t="n">
-        <v>34.76635006943114</v>
+        <v>34.76635006943116</v>
       </c>
       <c r="M28" t="n">
-        <v>36.65624154623951</v>
+        <v>36.65624154623952</v>
       </c>
       <c r="N28" t="n">
-        <v>35.78463805299833</v>
+        <v>35.78463805299834</v>
       </c>
       <c r="O28" t="n">
-        <v>33.05290515344965</v>
+        <v>33.05290515344966</v>
       </c>
       <c r="P28" t="n">
-        <v>28.28247042458797</v>
+        <v>28.28247042458798</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.58131652742633</v>
+        <v>19.58131652742634</v>
       </c>
       <c r="R28" t="n">
         <v>10.5145143355391</v>
       </c>
       <c r="S28" t="n">
-        <v>4.075277796447319</v>
+        <v>4.07527779644732</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9991552239594369</v>
+        <v>0.9991552239594371</v>
       </c>
       <c r="U28" t="n">
         <v>0.01275517307182262</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5213169563692986</v>
+        <v>0.5213169563692988</v>
       </c>
       <c r="H29" t="n">
-        <v>5.338937279417081</v>
+        <v>5.338937279417082</v>
       </c>
       <c r="I29" t="n">
-        <v>20.0980719604274</v>
+        <v>20.09807196042741</v>
       </c>
       <c r="J29" t="n">
-        <v>44.2461250256488</v>
+        <v>44.24612502564881</v>
       </c>
       <c r="K29" t="n">
-        <v>66.31347178876122</v>
+        <v>66.31347178876123</v>
       </c>
       <c r="L29" t="n">
-        <v>82.26772559224817</v>
+        <v>82.26772559224818</v>
       </c>
       <c r="M29" t="n">
-        <v>91.53869601508067</v>
+        <v>91.53869601508069</v>
       </c>
       <c r="N29" t="n">
-        <v>93.01988781736495</v>
+        <v>93.01988781736497</v>
       </c>
       <c r="O29" t="n">
-        <v>87.83604233246773</v>
+        <v>87.83604233246776</v>
       </c>
       <c r="P29" t="n">
-        <v>74.96602997210066</v>
+        <v>74.96602997210067</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.29636647212514</v>
+        <v>56.29636647212515</v>
       </c>
       <c r="R29" t="n">
-        <v>32.74717626053298</v>
+        <v>32.74717626053299</v>
       </c>
       <c r="S29" t="n">
-        <v>11.8795101432654</v>
+        <v>11.87951014326541</v>
       </c>
       <c r="T29" t="n">
         <v>2.282064976506606</v>
@@ -33257,37 +33257,37 @@
         <v>2.693868486404648</v>
       </c>
       <c r="I30" t="n">
-        <v>9.603482115475243</v>
+        <v>9.603482115475245</v>
       </c>
       <c r="J30" t="n">
         <v>26.35268894897481</v>
       </c>
       <c r="K30" t="n">
-        <v>45.04094280833783</v>
+        <v>45.04094280833785</v>
       </c>
       <c r="L30" t="n">
-        <v>60.56310600338877</v>
+        <v>60.56310600338879</v>
       </c>
       <c r="M30" t="n">
-        <v>70.67428812879039</v>
+        <v>70.67428812879041</v>
       </c>
       <c r="N30" t="n">
-        <v>72.54482623765176</v>
+        <v>72.54482623765178</v>
       </c>
       <c r="O30" t="n">
-        <v>66.36434322524654</v>
+        <v>66.36434322524656</v>
       </c>
       <c r="P30" t="n">
         <v>53.2632362221097</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.6050628648142</v>
+        <v>35.60506286481421</v>
       </c>
       <c r="R30" t="n">
         <v>17.31807551932071</v>
       </c>
       <c r="S30" t="n">
-        <v>5.180986848285047</v>
+        <v>5.180986848285048</v>
       </c>
       <c r="T30" t="n">
         <v>1.124280262945445</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.233844839650081</v>
+        <v>0.2338448396500811</v>
       </c>
       <c r="H31" t="n">
-        <v>2.079093210707085</v>
+        <v>2.079093210707086</v>
       </c>
       <c r="I31" t="n">
-        <v>7.03235208693153</v>
+        <v>7.032352086931532</v>
       </c>
       <c r="J31" t="n">
         <v>16.53283016326073</v>
@@ -33345,31 +33345,31 @@
         <v>27.16851864298214</v>
       </c>
       <c r="L31" t="n">
-        <v>34.76635006943114</v>
+        <v>34.76635006943116</v>
       </c>
       <c r="M31" t="n">
-        <v>36.65624154623951</v>
+        <v>36.65624154623952</v>
       </c>
       <c r="N31" t="n">
-        <v>35.78463805299833</v>
+        <v>35.78463805299834</v>
       </c>
       <c r="O31" t="n">
-        <v>33.05290515344965</v>
+        <v>33.05290515344966</v>
       </c>
       <c r="P31" t="n">
-        <v>28.28247042458797</v>
+        <v>28.28247042458798</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.58131652742633</v>
+        <v>19.58131652742634</v>
       </c>
       <c r="R31" t="n">
         <v>10.5145143355391</v>
       </c>
       <c r="S31" t="n">
-        <v>4.075277796447319</v>
+        <v>4.07527779644732</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9991552239594369</v>
+        <v>0.9991552239594371</v>
       </c>
       <c r="U31" t="n">
         <v>0.01275517307182262</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5213169563692986</v>
+        <v>0.5213169563692988</v>
       </c>
       <c r="H32" t="n">
-        <v>5.338937279417081</v>
+        <v>5.338937279417082</v>
       </c>
       <c r="I32" t="n">
-        <v>20.0980719604274</v>
+        <v>20.09807196042741</v>
       </c>
       <c r="J32" t="n">
-        <v>44.2461250256488</v>
+        <v>44.24612502564881</v>
       </c>
       <c r="K32" t="n">
-        <v>66.31347178876122</v>
+        <v>66.31347178876123</v>
       </c>
       <c r="L32" t="n">
-        <v>82.26772559224817</v>
+        <v>82.26772559224818</v>
       </c>
       <c r="M32" t="n">
-        <v>91.53869601508067</v>
+        <v>91.53869601508069</v>
       </c>
       <c r="N32" t="n">
-        <v>93.01988781736495</v>
+        <v>93.01988781736497</v>
       </c>
       <c r="O32" t="n">
-        <v>87.83604233246773</v>
+        <v>87.83604233246776</v>
       </c>
       <c r="P32" t="n">
-        <v>74.96602997210066</v>
+        <v>74.96602997210067</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.29636647212514</v>
+        <v>56.29636647212515</v>
       </c>
       <c r="R32" t="n">
-        <v>32.74717626053298</v>
+        <v>32.74717626053299</v>
       </c>
       <c r="S32" t="n">
-        <v>11.8795101432654</v>
+        <v>11.87951014326541</v>
       </c>
       <c r="T32" t="n">
         <v>2.282064976506606</v>
@@ -33494,37 +33494,37 @@
         <v>2.693868486404648</v>
       </c>
       <c r="I33" t="n">
-        <v>9.603482115475243</v>
+        <v>9.603482115475245</v>
       </c>
       <c r="J33" t="n">
         <v>26.35268894897481</v>
       </c>
       <c r="K33" t="n">
-        <v>45.04094280833783</v>
+        <v>45.04094280833785</v>
       </c>
       <c r="L33" t="n">
-        <v>60.56310600338877</v>
+        <v>60.56310600338879</v>
       </c>
       <c r="M33" t="n">
-        <v>70.67428812879039</v>
+        <v>70.67428812879041</v>
       </c>
       <c r="N33" t="n">
-        <v>72.54482623765176</v>
+        <v>72.54482623765178</v>
       </c>
       <c r="O33" t="n">
-        <v>66.36434322524654</v>
+        <v>66.36434322524656</v>
       </c>
       <c r="P33" t="n">
         <v>53.2632362221097</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.6050628648142</v>
+        <v>35.60506286481421</v>
       </c>
       <c r="R33" t="n">
         <v>17.31807551932071</v>
       </c>
       <c r="S33" t="n">
-        <v>5.180986848285047</v>
+        <v>5.180986848285048</v>
       </c>
       <c r="T33" t="n">
         <v>1.124280262945445</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.233844839650081</v>
+        <v>0.2338448396500811</v>
       </c>
       <c r="H34" t="n">
-        <v>2.079093210707085</v>
+        <v>2.079093210707086</v>
       </c>
       <c r="I34" t="n">
-        <v>7.03235208693153</v>
+        <v>7.032352086931532</v>
       </c>
       <c r="J34" t="n">
         <v>16.53283016326073</v>
@@ -33582,31 +33582,31 @@
         <v>27.16851864298214</v>
       </c>
       <c r="L34" t="n">
-        <v>34.76635006943114</v>
+        <v>34.76635006943116</v>
       </c>
       <c r="M34" t="n">
-        <v>36.65624154623951</v>
+        <v>36.65624154623952</v>
       </c>
       <c r="N34" t="n">
-        <v>35.78463805299833</v>
+        <v>35.78463805299834</v>
       </c>
       <c r="O34" t="n">
-        <v>33.05290515344965</v>
+        <v>33.05290515344966</v>
       </c>
       <c r="P34" t="n">
-        <v>28.28247042458797</v>
+        <v>28.28247042458798</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.58131652742633</v>
+        <v>19.58131652742634</v>
       </c>
       <c r="R34" t="n">
         <v>10.5145143355391</v>
       </c>
       <c r="S34" t="n">
-        <v>4.075277796447319</v>
+        <v>4.07527779644732</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9991552239594369</v>
+        <v>0.9991552239594371</v>
       </c>
       <c r="U34" t="n">
         <v>0.01275517307182262</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5213169563692986</v>
+        <v>0.5213169563692988</v>
       </c>
       <c r="H35" t="n">
-        <v>5.338937279417081</v>
+        <v>5.338937279417082</v>
       </c>
       <c r="I35" t="n">
-        <v>20.0980719604274</v>
+        <v>20.09807196042741</v>
       </c>
       <c r="J35" t="n">
-        <v>44.2461250256488</v>
+        <v>44.24612502564881</v>
       </c>
       <c r="K35" t="n">
-        <v>66.31347178876122</v>
+        <v>66.31347178876123</v>
       </c>
       <c r="L35" t="n">
-        <v>82.26772559224817</v>
+        <v>82.26772559224818</v>
       </c>
       <c r="M35" t="n">
-        <v>91.53869601508067</v>
+        <v>91.53869601508069</v>
       </c>
       <c r="N35" t="n">
-        <v>93.01988781736495</v>
+        <v>93.01988781736497</v>
       </c>
       <c r="O35" t="n">
-        <v>87.83604233246773</v>
+        <v>87.83604233246776</v>
       </c>
       <c r="P35" t="n">
-        <v>74.96602997210066</v>
+        <v>74.96602997210067</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.29636647212514</v>
+        <v>56.29636647212515</v>
       </c>
       <c r="R35" t="n">
-        <v>32.74717626053298</v>
+        <v>32.74717626053299</v>
       </c>
       <c r="S35" t="n">
-        <v>11.8795101432654</v>
+        <v>11.87951014326541</v>
       </c>
       <c r="T35" t="n">
         <v>2.282064976506606</v>
@@ -33731,37 +33731,37 @@
         <v>2.693868486404648</v>
       </c>
       <c r="I36" t="n">
-        <v>9.603482115475243</v>
+        <v>9.603482115475245</v>
       </c>
       <c r="J36" t="n">
         <v>26.35268894897481</v>
       </c>
       <c r="K36" t="n">
-        <v>45.04094280833783</v>
+        <v>45.04094280833785</v>
       </c>
       <c r="L36" t="n">
-        <v>60.56310600338877</v>
+        <v>60.56310600338879</v>
       </c>
       <c r="M36" t="n">
-        <v>70.67428812879039</v>
+        <v>70.67428812879041</v>
       </c>
       <c r="N36" t="n">
-        <v>72.54482623765176</v>
+        <v>72.54482623765178</v>
       </c>
       <c r="O36" t="n">
-        <v>66.36434322524654</v>
+        <v>66.36434322524656</v>
       </c>
       <c r="P36" t="n">
         <v>53.2632362221097</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.6050628648142</v>
+        <v>35.60506286481421</v>
       </c>
       <c r="R36" t="n">
         <v>17.31807551932071</v>
       </c>
       <c r="S36" t="n">
-        <v>5.180986848285047</v>
+        <v>5.180986848285048</v>
       </c>
       <c r="T36" t="n">
         <v>1.124280262945445</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.233844839650081</v>
+        <v>0.2338448396500811</v>
       </c>
       <c r="H37" t="n">
-        <v>2.079093210707085</v>
+        <v>2.079093210707086</v>
       </c>
       <c r="I37" t="n">
-        <v>7.03235208693153</v>
+        <v>7.032352086931532</v>
       </c>
       <c r="J37" t="n">
         <v>16.53283016326073</v>
@@ -33819,31 +33819,31 @@
         <v>27.16851864298214</v>
       </c>
       <c r="L37" t="n">
-        <v>34.76635006943114</v>
+        <v>34.76635006943116</v>
       </c>
       <c r="M37" t="n">
-        <v>36.65624154623951</v>
+        <v>36.65624154623952</v>
       </c>
       <c r="N37" t="n">
-        <v>35.78463805299833</v>
+        <v>35.78463805299834</v>
       </c>
       <c r="O37" t="n">
-        <v>33.05290515344965</v>
+        <v>33.05290515344966</v>
       </c>
       <c r="P37" t="n">
-        <v>28.28247042458797</v>
+        <v>28.28247042458798</v>
       </c>
       <c r="Q37" t="n">
-        <v>19.58131652742633</v>
+        <v>19.58131652742634</v>
       </c>
       <c r="R37" t="n">
         <v>10.5145143355391</v>
       </c>
       <c r="S37" t="n">
-        <v>4.075277796447319</v>
+        <v>4.07527779644732</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9991552239594369</v>
+        <v>0.9991552239594371</v>
       </c>
       <c r="U37" t="n">
         <v>0.01275517307182262</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5213169563692986</v>
+        <v>0.5213169563692988</v>
       </c>
       <c r="H38" t="n">
-        <v>5.338937279417081</v>
+        <v>5.338937279417082</v>
       </c>
       <c r="I38" t="n">
-        <v>20.0980719604274</v>
+        <v>20.09807196042741</v>
       </c>
       <c r="J38" t="n">
-        <v>44.2461250256488</v>
+        <v>44.24612502564881</v>
       </c>
       <c r="K38" t="n">
-        <v>66.31347178876122</v>
+        <v>66.31347178876123</v>
       </c>
       <c r="L38" t="n">
-        <v>82.26772559224817</v>
+        <v>82.26772559224818</v>
       </c>
       <c r="M38" t="n">
-        <v>91.53869601508067</v>
+        <v>91.53869601508069</v>
       </c>
       <c r="N38" t="n">
-        <v>93.01988781736495</v>
+        <v>93.01988781736497</v>
       </c>
       <c r="O38" t="n">
-        <v>87.83604233246773</v>
+        <v>87.83604233246776</v>
       </c>
       <c r="P38" t="n">
-        <v>74.96602997210066</v>
+        <v>74.96602997210067</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.29636647212514</v>
+        <v>56.29636647212515</v>
       </c>
       <c r="R38" t="n">
-        <v>32.74717626053298</v>
+        <v>32.74717626053299</v>
       </c>
       <c r="S38" t="n">
-        <v>11.8795101432654</v>
+        <v>11.87951014326541</v>
       </c>
       <c r="T38" t="n">
         <v>2.282064976506606</v>
@@ -33968,37 +33968,37 @@
         <v>2.693868486404648</v>
       </c>
       <c r="I39" t="n">
-        <v>9.603482115475243</v>
+        <v>9.603482115475245</v>
       </c>
       <c r="J39" t="n">
         <v>26.35268894897481</v>
       </c>
       <c r="K39" t="n">
-        <v>45.04094280833783</v>
+        <v>45.04094280833785</v>
       </c>
       <c r="L39" t="n">
-        <v>60.56310600338877</v>
+        <v>60.56310600338879</v>
       </c>
       <c r="M39" t="n">
-        <v>70.67428812879039</v>
+        <v>70.67428812879041</v>
       </c>
       <c r="N39" t="n">
-        <v>72.54482623765176</v>
+        <v>72.54482623765178</v>
       </c>
       <c r="O39" t="n">
-        <v>66.36434322524654</v>
+        <v>66.36434322524656</v>
       </c>
       <c r="P39" t="n">
         <v>53.2632362221097</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.6050628648142</v>
+        <v>35.60506286481421</v>
       </c>
       <c r="R39" t="n">
         <v>17.31807551932071</v>
       </c>
       <c r="S39" t="n">
-        <v>5.180986848285047</v>
+        <v>5.180986848285048</v>
       </c>
       <c r="T39" t="n">
         <v>1.124280262945445</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.233844839650081</v>
+        <v>0.2338448396500811</v>
       </c>
       <c r="H40" t="n">
-        <v>2.079093210707085</v>
+        <v>2.079093210707086</v>
       </c>
       <c r="I40" t="n">
-        <v>7.03235208693153</v>
+        <v>7.032352086931532</v>
       </c>
       <c r="J40" t="n">
         <v>16.53283016326073</v>
@@ -34056,31 +34056,31 @@
         <v>27.16851864298214</v>
       </c>
       <c r="L40" t="n">
-        <v>34.76635006943114</v>
+        <v>34.76635006943116</v>
       </c>
       <c r="M40" t="n">
-        <v>36.65624154623951</v>
+        <v>36.65624154623952</v>
       </c>
       <c r="N40" t="n">
-        <v>35.78463805299833</v>
+        <v>35.78463805299834</v>
       </c>
       <c r="O40" t="n">
-        <v>33.05290515344965</v>
+        <v>33.05290515344966</v>
       </c>
       <c r="P40" t="n">
-        <v>28.28247042458797</v>
+        <v>28.28247042458798</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.58131652742633</v>
+        <v>19.58131652742634</v>
       </c>
       <c r="R40" t="n">
         <v>10.5145143355391</v>
       </c>
       <c r="S40" t="n">
-        <v>4.075277796447319</v>
+        <v>4.07527779644732</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9991552239594369</v>
+        <v>0.9991552239594371</v>
       </c>
       <c r="U40" t="n">
         <v>0.01275517307182262</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5213169563692986</v>
+        <v>0.5213169563692988</v>
       </c>
       <c r="H41" t="n">
-        <v>5.338937279417081</v>
+        <v>5.338937279417082</v>
       </c>
       <c r="I41" t="n">
-        <v>20.0980719604274</v>
+        <v>20.09807196042741</v>
       </c>
       <c r="J41" t="n">
-        <v>44.2461250256488</v>
+        <v>44.24612502564881</v>
       </c>
       <c r="K41" t="n">
-        <v>66.31347178876122</v>
+        <v>66.31347178876123</v>
       </c>
       <c r="L41" t="n">
-        <v>82.26772559224817</v>
+        <v>82.26772559224818</v>
       </c>
       <c r="M41" t="n">
-        <v>91.53869601508067</v>
+        <v>91.53869601508069</v>
       </c>
       <c r="N41" t="n">
-        <v>93.01988781736495</v>
+        <v>93.01988781736497</v>
       </c>
       <c r="O41" t="n">
-        <v>87.83604233246773</v>
+        <v>87.83604233246776</v>
       </c>
       <c r="P41" t="n">
-        <v>74.96602997210066</v>
+        <v>74.96602997210067</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.29636647212514</v>
+        <v>56.29636647212515</v>
       </c>
       <c r="R41" t="n">
-        <v>32.74717626053298</v>
+        <v>32.74717626053299</v>
       </c>
       <c r="S41" t="n">
-        <v>11.8795101432654</v>
+        <v>11.87951014326541</v>
       </c>
       <c r="T41" t="n">
         <v>2.282064976506606</v>
@@ -34205,37 +34205,37 @@
         <v>2.693868486404648</v>
       </c>
       <c r="I42" t="n">
-        <v>9.603482115475243</v>
+        <v>9.603482115475245</v>
       </c>
       <c r="J42" t="n">
         <v>26.35268894897481</v>
       </c>
       <c r="K42" t="n">
-        <v>45.04094280833783</v>
+        <v>45.04094280833785</v>
       </c>
       <c r="L42" t="n">
-        <v>60.56310600338877</v>
+        <v>60.56310600338879</v>
       </c>
       <c r="M42" t="n">
-        <v>70.67428812879039</v>
+        <v>70.67428812879041</v>
       </c>
       <c r="N42" t="n">
-        <v>72.54482623765176</v>
+        <v>72.54482623765178</v>
       </c>
       <c r="O42" t="n">
-        <v>66.36434322524654</v>
+        <v>66.36434322524656</v>
       </c>
       <c r="P42" t="n">
         <v>53.2632362221097</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.6050628648142</v>
+        <v>35.60506286481421</v>
       </c>
       <c r="R42" t="n">
         <v>17.31807551932071</v>
       </c>
       <c r="S42" t="n">
-        <v>5.180986848285047</v>
+        <v>5.180986848285048</v>
       </c>
       <c r="T42" t="n">
         <v>1.124280262945445</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.233844839650081</v>
+        <v>0.2338448396500811</v>
       </c>
       <c r="H43" t="n">
-        <v>2.079093210707085</v>
+        <v>2.079093210707086</v>
       </c>
       <c r="I43" t="n">
-        <v>7.03235208693153</v>
+        <v>7.032352086931532</v>
       </c>
       <c r="J43" t="n">
         <v>16.53283016326073</v>
@@ -34293,31 +34293,31 @@
         <v>27.16851864298214</v>
       </c>
       <c r="L43" t="n">
-        <v>34.76635006943114</v>
+        <v>34.76635006943116</v>
       </c>
       <c r="M43" t="n">
-        <v>36.65624154623951</v>
+        <v>36.65624154623952</v>
       </c>
       <c r="N43" t="n">
-        <v>35.78463805299833</v>
+        <v>35.78463805299834</v>
       </c>
       <c r="O43" t="n">
-        <v>33.05290515344965</v>
+        <v>33.05290515344966</v>
       </c>
       <c r="P43" t="n">
-        <v>28.28247042458797</v>
+        <v>28.28247042458798</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.58131652742633</v>
+        <v>19.58131652742634</v>
       </c>
       <c r="R43" t="n">
         <v>10.5145143355391</v>
       </c>
       <c r="S43" t="n">
-        <v>4.075277796447319</v>
+        <v>4.07527779644732</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9991552239594369</v>
+        <v>0.9991552239594371</v>
       </c>
       <c r="U43" t="n">
         <v>0.01275517307182262</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5213169563692986</v>
+        <v>0.5213169563692988</v>
       </c>
       <c r="H44" t="n">
-        <v>5.338937279417081</v>
+        <v>5.338937279417082</v>
       </c>
       <c r="I44" t="n">
-        <v>20.0980719604274</v>
+        <v>20.09807196042741</v>
       </c>
       <c r="J44" t="n">
-        <v>44.2461250256488</v>
+        <v>44.24612502564881</v>
       </c>
       <c r="K44" t="n">
-        <v>66.31347178876122</v>
+        <v>66.31347178876123</v>
       </c>
       <c r="L44" t="n">
-        <v>82.26772559224817</v>
+        <v>82.26772559224818</v>
       </c>
       <c r="M44" t="n">
-        <v>91.53869601508067</v>
+        <v>91.53869601508069</v>
       </c>
       <c r="N44" t="n">
-        <v>93.01988781736495</v>
+        <v>93.01988781736497</v>
       </c>
       <c r="O44" t="n">
-        <v>87.83604233246773</v>
+        <v>87.83604233246776</v>
       </c>
       <c r="P44" t="n">
-        <v>74.96602997210066</v>
+        <v>74.96602997210067</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.29636647212514</v>
+        <v>56.29636647212515</v>
       </c>
       <c r="R44" t="n">
-        <v>32.74717626053298</v>
+        <v>32.74717626053299</v>
       </c>
       <c r="S44" t="n">
-        <v>11.8795101432654</v>
+        <v>11.87951014326541</v>
       </c>
       <c r="T44" t="n">
         <v>2.282064976506606</v>
@@ -34442,37 +34442,37 @@
         <v>2.693868486404648</v>
       </c>
       <c r="I45" t="n">
-        <v>9.603482115475243</v>
+        <v>9.603482115475245</v>
       </c>
       <c r="J45" t="n">
         <v>26.35268894897481</v>
       </c>
       <c r="K45" t="n">
-        <v>45.04094280833783</v>
+        <v>45.04094280833785</v>
       </c>
       <c r="L45" t="n">
-        <v>60.56310600338877</v>
+        <v>60.56310600338879</v>
       </c>
       <c r="M45" t="n">
-        <v>70.67428812879039</v>
+        <v>70.67428812879041</v>
       </c>
       <c r="N45" t="n">
-        <v>72.54482623765176</v>
+        <v>72.54482623765178</v>
       </c>
       <c r="O45" t="n">
-        <v>66.36434322524654</v>
+        <v>66.36434322524656</v>
       </c>
       <c r="P45" t="n">
         <v>53.2632362221097</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.6050628648142</v>
+        <v>35.60506286481421</v>
       </c>
       <c r="R45" t="n">
         <v>17.31807551932071</v>
       </c>
       <c r="S45" t="n">
-        <v>5.180986848285047</v>
+        <v>5.180986848285048</v>
       </c>
       <c r="T45" t="n">
         <v>1.124280262945445</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.233844839650081</v>
+        <v>0.2338448396500811</v>
       </c>
       <c r="H46" t="n">
-        <v>2.079093210707085</v>
+        <v>2.079093210707086</v>
       </c>
       <c r="I46" t="n">
-        <v>7.03235208693153</v>
+        <v>7.032352086931532</v>
       </c>
       <c r="J46" t="n">
         <v>16.53283016326073</v>
@@ -34530,31 +34530,31 @@
         <v>27.16851864298214</v>
       </c>
       <c r="L46" t="n">
-        <v>34.76635006943114</v>
+        <v>34.76635006943116</v>
       </c>
       <c r="M46" t="n">
-        <v>36.65624154623951</v>
+        <v>36.65624154623952</v>
       </c>
       <c r="N46" t="n">
-        <v>35.78463805299833</v>
+        <v>35.78463805299834</v>
       </c>
       <c r="O46" t="n">
-        <v>33.05290515344965</v>
+        <v>33.05290515344966</v>
       </c>
       <c r="P46" t="n">
-        <v>28.28247042458797</v>
+        <v>28.28247042458798</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.58131652742633</v>
+        <v>19.58131652742634</v>
       </c>
       <c r="R46" t="n">
         <v>10.5145143355391</v>
       </c>
       <c r="S46" t="n">
-        <v>4.075277796447319</v>
+        <v>4.07527779644732</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9991552239594369</v>
+        <v>0.9991552239594371</v>
       </c>
       <c r="U46" t="n">
         <v>0.01275517307182262</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>32.29683567103628</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>170.3690333149454</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>7.163000438878345</v>
+      </c>
+      <c r="N11" t="n">
         <v>198.6988396730519</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
       <c r="O11" t="n">
-        <v>173.565004440894</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="P11" t="n">
         <v>165.5317423883138</v>
       </c>
       <c r="Q11" t="n">
-        <v>46.30566725758033</v>
+        <v>46.30566725758035</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>171.6647408465574</v>
       </c>
       <c r="L12" t="n">
+        <v>192.0986049304435</v>
+      </c>
+      <c r="M12" t="n">
         <v>198.6988396730519</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="O12" t="n">
-        <v>86.39802841580173</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>105.7005765146418</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35547,7 +35547,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>30.01584943355786</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -35568,22 +35568,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.340276851038054</v>
+        <v>4.899026817099291</v>
       </c>
       <c r="L13" t="n">
         <v>198.6988396730519</v>
       </c>
       <c r="M13" t="n">
-        <v>76.2401185080801</v>
+        <v>76.24011850808012</v>
       </c>
       <c r="N13" t="n">
-        <v>79.91681043222692</v>
+        <v>113.3739098997236</v>
       </c>
       <c r="O13" t="n">
-        <v>57.63803306748932</v>
+        <v>57.63803306748933</v>
       </c>
       <c r="P13" t="n">
-        <v>25.56102968948146</v>
+        <v>25.56102968948147</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>32.29683567103628</v>
+        <v>32.29683567103629</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,19 +35653,19 @@
         <v>198.6988396730519</v>
       </c>
       <c r="M14" t="n">
+        <v>145.2351980827875</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>198.6988396730519</v>
       </c>
-      <c r="N14" t="n">
-        <v>198.6988396730519</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
       <c r="P14" t="n">
-        <v>158.3737680556297</v>
+        <v>165.5317423883138</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>46.30566725758035</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>25.60609762271695</v>
       </c>
       <c r="K15" t="n">
         <v>171.6647408465574</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>86.39802841580162</v>
+      </c>
+      <c r="N15" t="n">
         <v>198.6988396730519</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>198.6988396730519</v>
       </c>
-      <c r="N15" t="n">
-        <v>19.00586288010853</v>
-      </c>
-      <c r="O15" t="n">
-        <v>198.6988396730519</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>105.7005765146418</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35787,10 +35787,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>32.19735980520107</v>
       </c>
       <c r="F16" t="n">
-        <v>33.21027442883894</v>
+        <v>33.210274428839</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>101.8049724983582</v>
       </c>
       <c r="K16" t="n">
-        <v>4.899026817099283</v>
+        <v>4.899026817099291</v>
       </c>
       <c r="L16" t="n">
-        <v>76.48694354673799</v>
+        <v>62.35637532974729</v>
       </c>
       <c r="M16" t="n">
-        <v>198.6988396730519</v>
+        <v>76.24011850808012</v>
       </c>
       <c r="N16" t="n">
         <v>79.91681043222692</v>
       </c>
       <c r="O16" t="n">
-        <v>57.63803306748932</v>
+        <v>57.63803306748933</v>
       </c>
       <c r="P16" t="n">
-        <v>25.56102968948146</v>
+        <v>28.14798676788409</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>32.29683567103628</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35893,16 +35893,16 @@
         <v>198.6988396730519</v>
       </c>
       <c r="N17" t="n">
+        <v>190.670603726666</v>
+      </c>
+      <c r="O17" t="n">
         <v>198.6988396730519</v>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
       <c r="P17" t="n">
-        <v>112.0681007980493</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>46.30566725758033</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>171.6647408465574</v>
       </c>
       <c r="L18" t="n">
-        <v>112.0041260385187</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>112.0041260385186</v>
       </c>
       <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>198.6988396730519</v>
-      </c>
-      <c r="O18" t="n">
-        <v>198.6988396730519</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>105.7005765146418</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>4.899026817099283</v>
+        <v>4.899026817099291</v>
       </c>
       <c r="L19" t="n">
-        <v>62.35637532974728</v>
+        <v>62.35637532974729</v>
       </c>
       <c r="M19" t="n">
-        <v>76.2401185080801</v>
+        <v>76.24011850808012</v>
       </c>
       <c r="N19" t="n">
         <v>79.91681043222692</v>
       </c>
       <c r="O19" t="n">
-        <v>57.63803306748932</v>
+        <v>57.63803306748933</v>
       </c>
       <c r="P19" t="n">
-        <v>25.56102968948146</v>
+        <v>25.56102968948147</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>32.29683567103628</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>158.3737680556297</v>
+        <v>25.1388613383522</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="M20" t="n">
         <v>198.6988396730519</v>
       </c>
       <c r="N20" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>198.6988396730519</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>165.5317423883138</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>25.60609762271695</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>59.36392958930722</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="M21" t="n">
         <v>198.6988396730519</v>
       </c>
       <c r="N21" t="n">
+        <v>190.670603726666</v>
+      </c>
+      <c r="O21" t="n">
         <v>198.6988396730519</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
       <c r="P21" t="n">
-        <v>198.6988396730519</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>105.7005765146418</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>4.899026817099283</v>
+        <v>4.899026817099291</v>
       </c>
       <c r="L22" t="n">
-        <v>62.35637532974728</v>
+        <v>62.35637532974729</v>
       </c>
       <c r="M22" t="n">
-        <v>76.2401185080801</v>
+        <v>76.24011850808012</v>
       </c>
       <c r="N22" t="n">
         <v>79.91681043222692</v>
       </c>
       <c r="O22" t="n">
-        <v>57.63803306748932</v>
+        <v>57.63803306748933</v>
       </c>
       <c r="P22" t="n">
-        <v>25.56102968948146</v>
+        <v>25.56102968948147</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>32.29683567103628</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>191.5408653403679</v>
+        <v>190.6706037266659</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="N23" t="n">
         <v>198.6988396730519</v>
@@ -36373,7 +36373,7 @@
         <v>198.6988396730519</v>
       </c>
       <c r="P23" t="n">
-        <v>165.5317423883138</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>25.60609762271695</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>171.6647408465574</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>198.6988396730519</v>
       </c>
       <c r="M24" t="n">
         <v>198.6988396730519</v>
@@ -36449,7 +36449,7 @@
         <v>198.6988396730519</v>
       </c>
       <c r="O24" t="n">
-        <v>192.0986049304435</v>
+        <v>19.00586288010853</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>4.899026817099283</v>
+        <v>4.899026817099291</v>
       </c>
       <c r="L25" t="n">
-        <v>62.35637532974728</v>
+        <v>62.35637532974729</v>
       </c>
       <c r="M25" t="n">
-        <v>76.2401185080801</v>
+        <v>76.24011850808012</v>
       </c>
       <c r="N25" t="n">
         <v>79.91681043222692</v>
       </c>
       <c r="O25" t="n">
-        <v>57.63803306748932</v>
+        <v>57.63803306748933</v>
       </c>
       <c r="P25" t="n">
-        <v>25.56102968948146</v>
+        <v>25.56102968948147</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36610,13 +36610,13 @@
         <v>387.5401023963828</v>
       </c>
       <c r="P26" t="n">
-        <v>314.5338326111702</v>
+        <v>314.5338326111703</v>
       </c>
       <c r="Q26" t="n">
-        <v>195.3077574804368</v>
+        <v>195.3077574804369</v>
       </c>
       <c r="R26" t="n">
-        <v>31.88014854223978</v>
+        <v>31.88014854223979</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36735,10 +36735,10 @@
         <v>0.386617204644125</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>2.56812757628731</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>3.581042199925236</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>4.899026817099283</v>
+        <v>4.899026817099291</v>
       </c>
       <c r="L28" t="n">
-        <v>211.3584655526038</v>
+        <v>62.35637532974729</v>
       </c>
       <c r="M28" t="n">
         <v>225.2422087309366</v>
@@ -36765,13 +36765,13 @@
         <v>228.9189006550834</v>
       </c>
       <c r="O28" t="n">
-        <v>57.63803306748932</v>
+        <v>57.63803306748933</v>
       </c>
       <c r="P28" t="n">
-        <v>57.07535678071001</v>
+        <v>174.563119912338</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>25.36515731501597</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>181.2989258938929</v>
+        <v>181.2989258938928</v>
       </c>
       <c r="K29" t="n">
         <v>319.371123537802</v>
@@ -36841,10 +36841,10 @@
         <v>459.708086503497</v>
       </c>
       <c r="N29" t="n">
-        <v>449.9558388556147</v>
+        <v>449.9558388556145</v>
       </c>
       <c r="O29" t="n">
-        <v>387.540102396383</v>
+        <v>387.5401023963828</v>
       </c>
       <c r="P29" t="n">
         <v>314.5338326111703</v>
@@ -36853,7 +36853,7 @@
         <v>195.3077574804369</v>
       </c>
       <c r="R29" t="n">
-        <v>31.88014854223928</v>
+        <v>31.88014854223982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36969,13 +36969,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3866172046442102</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>3.581042199925321</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36984,28 +36984,28 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.5839673825298117</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>72.17574026944452</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>4.899026817099283</v>
+        <v>153.9011170399558</v>
       </c>
       <c r="L31" t="n">
         <v>211.3584655526038</v>
       </c>
       <c r="M31" t="n">
-        <v>180.4157859702644</v>
+        <v>108.1410628039523</v>
       </c>
       <c r="N31" t="n">
-        <v>228.9189006550835</v>
+        <v>79.91681043222692</v>
       </c>
       <c r="O31" t="n">
-        <v>57.63803306748932</v>
+        <v>57.63803306748933</v>
       </c>
       <c r="P31" t="n">
-        <v>25.56102968948146</v>
+        <v>174.563119912338</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>181.2989258938928</v>
       </c>
       <c r="K32" t="n">
-        <v>319.3711235378019</v>
+        <v>319.371123537802</v>
       </c>
       <c r="L32" t="n">
         <v>413.1646153955679</v>
@@ -37081,16 +37081,16 @@
         <v>449.9558388556147</v>
       </c>
       <c r="O32" t="n">
-        <v>387.5401023963828</v>
+        <v>387.5401023963829</v>
       </c>
       <c r="P32" t="n">
-        <v>314.5338326111702</v>
+        <v>314.5338326111703</v>
       </c>
       <c r="Q32" t="n">
-        <v>195.3077574804368</v>
+        <v>195.3077574804369</v>
       </c>
       <c r="R32" t="n">
-        <v>31.88014854223974</v>
+        <v>31.88014854223982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37206,13 +37206,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.3866172046441534</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2.568127576287338</v>
       </c>
       <c r="F34" t="n">
-        <v>3.581042199925236</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37221,31 +37221,31 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5839673825297265</v>
+        <v>0.5839673825297567</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>72.17574026944446</v>
       </c>
       <c r="K34" t="n">
-        <v>4.899026817099283</v>
+        <v>153.9011170399558</v>
       </c>
       <c r="L34" t="n">
-        <v>211.3584655526038</v>
+        <v>167.5449574155703</v>
       </c>
       <c r="M34" t="n">
-        <v>225.2422087309366</v>
+        <v>76.24011850808012</v>
       </c>
       <c r="N34" t="n">
-        <v>79.91681043222692</v>
+        <v>228.9189006550834</v>
       </c>
       <c r="O34" t="n">
-        <v>151.9546945051751</v>
+        <v>57.63803306748933</v>
       </c>
       <c r="P34" t="n">
-        <v>25.56102968948146</v>
+        <v>25.56102968948147</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.42136349858842</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>32.29683567103628</v>
+        <v>32.29683567103629</v>
       </c>
       <c r="K35" t="n">
         <v>170.3690333149454</v>
       </c>
       <c r="L35" t="n">
-        <v>465.5950969644858</v>
+        <v>264.1625251727114</v>
       </c>
       <c r="M35" t="n">
-        <v>344.9706002763612</v>
+        <v>496.513616169917</v>
       </c>
       <c r="N35" t="n">
         <v>300.9537486327582</v>
       </c>
       <c r="O35" t="n">
-        <v>439.9705839653009</v>
+        <v>238.5380121735264</v>
       </c>
       <c r="P35" t="n">
         <v>165.5317423883138</v>
       </c>
       <c r="Q35" t="n">
-        <v>46.30566725758033</v>
+        <v>213.3171648364162</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>84.31063011115776</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>25.60609762271695</v>
       </c>
       <c r="K36" t="n">
-        <v>171.6647408465572</v>
+        <v>171.6647408465574</v>
       </c>
       <c r="L36" t="n">
         <v>292.8490715269738</v>
@@ -37437,10 +37437,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>5.725078441760503</v>
       </c>
       <c r="C37" t="n">
-        <v>5.725078441760445</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>4.899026817099283</v>
+        <v>4.899026817099291</v>
       </c>
       <c r="L37" t="n">
-        <v>62.35637532974728</v>
+        <v>62.35637532974729</v>
       </c>
       <c r="M37" t="n">
-        <v>76.2401185080801</v>
+        <v>76.24011850808012</v>
       </c>
       <c r="N37" t="n">
         <v>79.91681043222692</v>
       </c>
       <c r="O37" t="n">
-        <v>57.63803306748932</v>
+        <v>57.63803306748933</v>
       </c>
       <c r="P37" t="n">
-        <v>25.56102968948146</v>
+        <v>25.56102968948147</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>32.29683567103628</v>
+        <v>233.7294074628108</v>
       </c>
       <c r="K38" t="n">
-        <v>170.3690333149454</v>
+        <v>371.80160510672</v>
       </c>
       <c r="L38" t="n">
         <v>264.1625251727114</v>
@@ -37552,19 +37552,19 @@
         <v>310.7059962806404</v>
       </c>
       <c r="N38" t="n">
-        <v>496.513616169917</v>
+        <v>300.9537486327582</v>
       </c>
       <c r="O38" t="n">
-        <v>278.6753204238636</v>
+        <v>238.5380121735264</v>
       </c>
       <c r="P38" t="n">
-        <v>366.9643141800883</v>
+        <v>165.5317423883138</v>
       </c>
       <c r="Q38" t="n">
-        <v>46.30566725758033</v>
+        <v>46.30566725758035</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>34.26460399572088</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>25.60609762271695</v>
+        <v>25.6060976227172</v>
       </c>
       <c r="K39" t="n">
         <v>171.6647408465574</v>
@@ -37701,25 +37701,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>4.899026817099283</v>
+        <v>4.899026817099291</v>
       </c>
       <c r="L40" t="n">
-        <v>62.35637532974728</v>
+        <v>62.35637532974729</v>
       </c>
       <c r="M40" t="n">
-        <v>76.2401185080801</v>
+        <v>76.24011850808012</v>
       </c>
       <c r="N40" t="n">
         <v>79.91681043222692</v>
       </c>
       <c r="O40" t="n">
-        <v>57.63803306748932</v>
+        <v>57.63803306748933</v>
       </c>
       <c r="P40" t="n">
-        <v>25.56102968948146</v>
+        <v>31.28610813124142</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.725078441760459</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,10 +37774,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>11.05475418179603</v>
       </c>
       <c r="J41" t="n">
-        <v>66.56143966675781</v>
+        <v>32.29683567103629</v>
       </c>
       <c r="K41" t="n">
         <v>170.3690333149454</v>
@@ -37792,7 +37792,7 @@
         <v>300.9537486327582</v>
       </c>
       <c r="O41" t="n">
-        <v>238.5380121735263</v>
+        <v>238.5380121735264</v>
       </c>
       <c r="P41" t="n">
         <v>366.9643141800883</v>
@@ -37801,7 +37801,7 @@
         <v>247.7382390493549</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>23.20984981392503</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>25.60609762271695</v>
       </c>
       <c r="K42" t="n">
-        <v>171.6647408465577</v>
+        <v>171.6647408465574</v>
       </c>
       <c r="L42" t="n">
         <v>292.8490715269738</v>
@@ -37911,7 +37911,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>5.725078441759935</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -37938,22 +37938,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>4.899026817099283</v>
+        <v>4.899026817099291</v>
       </c>
       <c r="L43" t="n">
-        <v>68.08145377150726</v>
+        <v>62.35637532974729</v>
       </c>
       <c r="M43" t="n">
-        <v>76.2401185080801</v>
+        <v>76.24011850808012</v>
       </c>
       <c r="N43" t="n">
         <v>79.91681043222692</v>
       </c>
       <c r="O43" t="n">
-        <v>57.63803306748932</v>
+        <v>57.63803306748933</v>
       </c>
       <c r="P43" t="n">
-        <v>25.56102968948146</v>
+        <v>25.56102968948147</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>62.26942731796309</v>
+        <v>32.29683567103629</v>
       </c>
       <c r="K44" t="n">
         <v>371.8016051067199</v>
@@ -38026,22 +38026,22 @@
         <v>310.7059962806404</v>
       </c>
       <c r="N44" t="n">
-        <v>300.9537486327582</v>
+        <v>452.3402943090959</v>
       </c>
       <c r="O44" t="n">
-        <v>238.5380121735263</v>
+        <v>238.5380121735264</v>
       </c>
       <c r="P44" t="n">
         <v>165.5317423883138</v>
       </c>
       <c r="Q44" t="n">
-        <v>247.7382390493548</v>
+        <v>46.30566725758035</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>84.31063011115779</v>
       </c>
       <c r="S44" t="n">
-        <v>4.292012348794541</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>25.60609762271695</v>
+        <v>25.6060976227172</v>
       </c>
       <c r="K45" t="n">
         <v>171.6647408465574</v>
@@ -38166,7 +38166,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>5.725078441760438</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>4.899026817099283</v>
+        <v>4.899026817099291</v>
       </c>
       <c r="L46" t="n">
-        <v>62.35637532974728</v>
+        <v>62.35637532974729</v>
       </c>
       <c r="M46" t="n">
-        <v>76.2401185080801</v>
+        <v>76.24011850808012</v>
       </c>
       <c r="N46" t="n">
         <v>79.91681043222692</v>
       </c>
       <c r="O46" t="n">
-        <v>57.63803306748932</v>
+        <v>57.63803306748933</v>
       </c>
       <c r="P46" t="n">
-        <v>25.56102968948146</v>
+        <v>31.28610813124187</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
